--- a/reference/raw_data/深夜模式局外词条.xlsx
+++ b/reference/raw_data/深夜模式局外词条.xlsx
@@ -10,7 +10,7 @@
     <sheet name="深夜模式局外词条（遗物+武器固有效果）" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'深夜模式局外词条（遗物+武器固有效果）'!$A$1:$G$366</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'深夜模式局外词条（遗物+武器固有效果）'!$A$1:$G$364</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="354">
   <si>
     <t>深夜模式 局外词条（遗物+武器固有效果）</t>
   </si>
@@ -537,21 +537,6 @@
   </si>
   <si>
     <t>专注值消耗-8%</t>
-  </si>
-  <si>
-    <t>减少专注值消耗＋１</t>
-  </si>
-  <si>
-    <t>专注值消耗-13%</t>
-  </si>
-  <si>
-    <t>似乎暂未加入抽取池？</t>
-  </si>
-  <si>
-    <t>减少专注值消耗＋２</t>
-  </si>
-  <si>
-    <t>专注值消耗-16%</t>
   </si>
   <si>
     <t>提升属性攻击力</t>
@@ -1150,7 +1135,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1222,12 +1207,6 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.25"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1852,137 +1831,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2128,9 +2107,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2147,7 +2123,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2155,6 +2131,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2199,9 +2178,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2233,7 +2209,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2765,10 +2741,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N367"/>
+  <dimension ref="A1:N365"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A554" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4454,9 +4430,9 @@
       </c>
       <c r="H76" s="26"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" ht="17" spans="1:8">
       <c r="A77" s="12">
-        <v>6610701</v>
+        <v>6610800</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>165</v>
@@ -4464,35 +4440,35 @@
       <c r="C77" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E77" s="40" t="s">
+      <c r="E77" s="29"/>
+      <c r="F77" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G77" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="26"/>
+    </row>
+    <row r="78" ht="17" spans="1:8">
+      <c r="A78" s="12">
+        <v>6610801</v>
+      </c>
+      <c r="B78" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="26"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="12">
-        <v>6610702</v>
-      </c>
-      <c r="B78" s="13" t="s">
+      <c r="C78" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C78" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="E78" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="F78" s="39"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="G78" s="39" t="s">
         <v>12</v>
       </c>
@@ -4500,40 +4476,40 @@
     </row>
     <row r="79" ht="17" spans="1:8">
       <c r="A79" s="12">
-        <v>6610800</v>
-      </c>
-      <c r="B79" s="13" t="s">
+        <v>6610802</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C79" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="17" t="s">
+      <c r="E79" s="24"/>
+      <c r="F79" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="26"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="12">
+        <v>6611001</v>
+      </c>
+      <c r="B80" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="E79" s="29"/>
-      <c r="F79" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G79" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="26"/>
-    </row>
-    <row r="80" ht="17" spans="1:8">
-      <c r="A80" s="12">
-        <v>6610801</v>
-      </c>
-      <c r="B80" s="13" t="s">
+      <c r="C80" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C80" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E80" s="29"/>
+      <c r="E80" s="38"/>
       <c r="F80" s="25" t="s">
         <v>11</v>
       </c>
@@ -4542,20 +4518,20 @@
       </c>
       <c r="H80" s="26"/>
     </row>
-    <row r="81" ht="17" spans="1:8">
+    <row r="81" spans="1:8">
       <c r="A81" s="12">
-        <v>6610802</v>
-      </c>
-      <c r="B81" s="20" t="s">
+        <v>6611002</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C81" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="E81" s="24"/>
+      <c r="E81" s="27"/>
       <c r="F81" s="25" t="s">
         <v>11</v>
       </c>
@@ -4566,20 +4542,20 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="12">
-        <v>6611001</v>
+        <v>6611100</v>
       </c>
       <c r="B82" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C82" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="E82" s="38"/>
-      <c r="F82" s="25" t="s">
-        <v>11</v>
+      <c r="E82" s="29"/>
+      <c r="F82" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="G82" s="39" t="s">
         <v>12</v>
@@ -4588,18 +4564,18 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="12">
-        <v>6611002</v>
+        <v>6611101</v>
       </c>
       <c r="B83" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C83" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E83" s="27"/>
+      <c r="E83" s="29"/>
       <c r="F83" s="25" t="s">
         <v>11</v>
       </c>
@@ -4608,22 +4584,22 @@
       </c>
       <c r="H83" s="26"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" ht="17" spans="1:8">
       <c r="A84" s="12">
-        <v>6611100</v>
-      </c>
-      <c r="B84" s="13" t="s">
+        <v>6611102</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C84" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>181</v>
-      </c>
       <c r="E84" s="29"/>
-      <c r="F84" s="14" t="s">
-        <v>49</v>
+      <c r="F84" s="25" t="s">
+        <v>11</v>
       </c>
       <c r="G84" s="39" t="s">
         <v>12</v>
@@ -4632,228 +4608,224 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="12">
-        <v>6611101</v>
+        <v>6611200</v>
       </c>
       <c r="B85" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C85" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="15" t="s">
+      <c r="E85" s="24"/>
+      <c r="F85" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G85" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="26"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="12">
+        <v>6611201</v>
+      </c>
+      <c r="B86" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E85" s="29"/>
-      <c r="F85" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" s="26"/>
-    </row>
-    <row r="86" ht="17" spans="1:8">
-      <c r="A86" s="12">
-        <v>6611102</v>
-      </c>
-      <c r="B86" s="20" t="s">
+      <c r="C86" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C86" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E86" s="29"/>
+      <c r="E86" s="24"/>
       <c r="F86" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G86" s="39" t="s">
+      <c r="G86" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H86" s="26"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="12">
-        <v>6611200</v>
+        <v>6611202</v>
       </c>
       <c r="B87" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C87" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="18" t="s">
+      <c r="E87" s="24"/>
+      <c r="F87" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="26"/>
+    </row>
+    <row r="88" ht="17" spans="1:8">
+      <c r="A88" s="12">
+        <v>6611300</v>
+      </c>
+      <c r="B88" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="E87" s="24"/>
-      <c r="F87" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G87" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" s="26"/>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="12">
-        <v>6611201</v>
-      </c>
-      <c r="B88" s="13" t="s">
+      <c r="C88" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C88" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="41" t="s">
+      <c r="E88" s="29"/>
+      <c r="F88" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G88" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H88" s="26"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="12">
-        <v>6611202</v>
+        <v>6611301</v>
       </c>
       <c r="B89" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="C89" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="E89" s="24"/>
+      <c r="E89" s="29"/>
       <c r="F89" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G89" s="41" t="s">
+      <c r="G89" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H89" s="26"/>
     </row>
-    <row r="90" ht="17" spans="1:8">
+    <row r="90" spans="1:8">
       <c r="A90" s="12">
-        <v>6611300</v>
-      </c>
-      <c r="B90" s="20" t="s">
+        <v>6611302</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C90" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>193</v>
-      </c>
       <c r="E90" s="29"/>
-      <c r="F90" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G90" s="41" t="s">
+      <c r="F90" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H90" s="26"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="12">
-        <v>6611301</v>
+        <v>6611400</v>
       </c>
       <c r="B91" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C91" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="E91" s="29"/>
-      <c r="F91" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="41" t="s">
+      <c r="E91" s="24"/>
+      <c r="F91" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G91" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H91" s="26"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="12">
-        <v>6611302</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>196</v>
+        <v>6621000</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D92" s="18" t="s">
-        <v>197</v>
-      </c>
+      <c r="D92" s="15"/>
       <c r="E92" s="29"/>
-      <c r="F92" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" s="41" t="s">
+      <c r="F92" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G92" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H92" s="26"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="12">
-        <v>6611400</v>
+        <v>6621100</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="E93" s="24"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="29"/>
       <c r="F93" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G93" s="41" t="s">
+      <c r="G93" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H93" s="26"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="12">
-        <v>6621000</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>200</v>
+        <v>6621200</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="15"/>
+      <c r="D94" s="19"/>
       <c r="E94" s="29"/>
       <c r="F94" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G94" s="41" t="s">
+      <c r="G94" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H94" s="26"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" ht="17" spans="1:8">
       <c r="A95" s="12">
-        <v>6621100</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>201</v>
+        <v>6621300</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>198</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>9</v>
@@ -4863,57 +4835,57 @@
       <c r="F95" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G95" s="41" t="s">
+      <c r="G95" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H95" s="26"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="12">
-        <v>6621200</v>
+        <v>6621400</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D96" s="19"/>
+      <c r="D96" s="35"/>
       <c r="E96" s="29"/>
       <c r="F96" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G96" s="41" t="s">
+      <c r="G96" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H96" s="26"/>
     </row>
-    <row r="97" ht="17" spans="1:8">
+    <row r="97" spans="1:8">
       <c r="A97" s="12">
-        <v>6621300</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>203</v>
+        <v>6621500</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="17"/>
+      <c r="D97" s="15"/>
       <c r="E97" s="29"/>
       <c r="F97" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G97" s="41" t="s">
+      <c r="G97" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H97" s="26"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="12">
-        <v>6621400</v>
+        <v>6621600</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>9</v>
@@ -4923,17 +4895,17 @@
       <c r="F98" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G98" s="41" t="s">
+      <c r="G98" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H98" s="26"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="12">
-        <v>6621500</v>
+        <v>6621700</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>9</v>
@@ -4943,17 +4915,17 @@
       <c r="F99" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G99" s="41" t="s">
+      <c r="G99" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H99" s="26"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="12">
-        <v>6621600</v>
+        <v>6621800</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C100" s="14" t="s">
         <v>9</v>
@@ -4963,37 +4935,37 @@
       <c r="F100" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G100" s="41" t="s">
+      <c r="G100" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H100" s="26"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="12">
-        <v>6621700</v>
+        <v>6621900</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C101" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D101" s="15"/>
+      <c r="D101" s="35"/>
       <c r="E101" s="29"/>
       <c r="F101" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G101" s="41" t="s">
+      <c r="G101" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H101" s="26"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="12">
-        <v>6621800</v>
+        <v>6622000</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>9</v>
@@ -5003,17 +4975,17 @@
       <c r="F102" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G102" s="41" t="s">
+      <c r="G102" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H102" s="26"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="12">
-        <v>6621900</v>
+        <v>6622100</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>9</v>
@@ -5023,17 +4995,17 @@
       <c r="F103" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G103" s="41" t="s">
+      <c r="G103" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H103" s="26"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:13">
       <c r="A104" s="12">
-        <v>6622000</v>
+        <v>6622200</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>9</v>
@@ -5043,37 +5015,38 @@
       <c r="F104" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G104" s="41" t="s">
+      <c r="G104" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H104" s="26"/>
+      <c r="M104" s="41"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="12">
-        <v>6622100</v>
+        <v>6622300</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D105" s="35"/>
+      <c r="D105" s="18"/>
       <c r="E105" s="29"/>
       <c r="F105" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G105" s="41" t="s">
+      <c r="G105" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H105" s="26"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:8">
       <c r="A106" s="12">
-        <v>6622200</v>
+        <v>6622400</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C106" s="14" t="s">
         <v>9</v>
@@ -5083,78 +5056,77 @@
       <c r="F106" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G106" s="41" t="s">
+      <c r="G106" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H106" s="26"/>
-      <c r="M106" s="42"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="12">
-        <v>6622300</v>
+        <v>6622500</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C107" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D107" s="18"/>
+      <c r="D107" s="35"/>
       <c r="E107" s="29"/>
       <c r="F107" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G107" s="41" t="s">
+      <c r="G107" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H107" s="26"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" ht="17" spans="1:8">
       <c r="A108" s="12">
-        <v>6622400</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>214</v>
+        <v>6622600</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="C108" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D108" s="35"/>
+      <c r="D108" s="17"/>
       <c r="E108" s="29"/>
       <c r="F108" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G108" s="41" t="s">
+      <c r="G108" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H108" s="26"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" ht="17" spans="1:8">
       <c r="A109" s="12">
-        <v>6622500</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>215</v>
+        <v>6622700</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>212</v>
       </c>
       <c r="C109" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D109" s="35"/>
+      <c r="D109" s="15"/>
       <c r="E109" s="29"/>
       <c r="F109" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G109" s="41" t="s">
+      <c r="G109" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H109" s="26"/>
     </row>
-    <row r="110" ht="17" spans="1:8">
+    <row r="110" spans="1:8">
       <c r="A110" s="12">
-        <v>6622600</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>216</v>
+        <v>6622800</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>213</v>
       </c>
       <c r="C110" s="14" t="s">
         <v>9</v>
@@ -5164,17 +5136,17 @@
       <c r="F110" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G110" s="41" t="s">
+      <c r="G110" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H110" s="26"/>
     </row>
-    <row r="111" ht="17" spans="1:8">
+    <row r="111" spans="1:8">
       <c r="A111" s="12">
-        <v>6622700</v>
-      </c>
-      <c r="B111" s="20" t="s">
-        <v>217</v>
+        <v>6622900</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="C111" s="14" t="s">
         <v>9</v>
@@ -5184,57 +5156,57 @@
       <c r="F111" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G111" s="41" t="s">
+      <c r="G111" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H111" s="26"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="12">
-        <v>6622800</v>
+        <v>6623000</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C112" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D112" s="17"/>
-      <c r="E112" s="29"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="24"/>
       <c r="F112" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G112" s="41" t="s">
+      <c r="G112" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H112" s="26"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="12">
-        <v>6622900</v>
+        <v>6623100</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C113" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D113" s="15"/>
-      <c r="E113" s="29"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="24"/>
       <c r="F113" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G113" s="41" t="s">
+      <c r="G113" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H113" s="26"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="12">
-        <v>6623000</v>
+        <v>6624000</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C114" s="14" t="s">
         <v>9</v>
@@ -5244,37 +5216,37 @@
       <c r="F114" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G114" s="41" t="s">
+      <c r="G114" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H114" s="26"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="12">
-        <v>6623100</v>
+        <v>6624100</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C115" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D115" s="35"/>
-      <c r="E115" s="24"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="29"/>
       <c r="F115" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G115" s="41" t="s">
+      <c r="G115" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H115" s="26"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="12">
-        <v>6624000</v>
+        <v>6624200</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C116" s="14" t="s">
         <v>9</v>
@@ -5284,124 +5256,128 @@
       <c r="F116" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G116" s="41" t="s">
+      <c r="G116" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H116" s="26"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="12">
-        <v>6624100</v>
+        <v>6624300</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C117" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D117" s="15"/>
-      <c r="E117" s="29"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="24"/>
       <c r="F117" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G117" s="41" t="s">
+      <c r="G117" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H117" s="26"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="12">
-        <v>6624200</v>
+        <v>6624400</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C118" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D118" s="35"/>
-      <c r="E118" s="24"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="29"/>
       <c r="F118" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G118" s="41" t="s">
+      <c r="G118" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H118" s="26"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="12">
-        <v>6624300</v>
+        <v>6624500</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C119" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D119" s="35"/>
-      <c r="E119" s="24"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="29"/>
       <c r="F119" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G119" s="41" t="s">
+      <c r="G119" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H119" s="26"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="12">
-        <v>6624400</v>
+        <v>6630000</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C120" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="17"/>
-      <c r="E120" s="29"/>
+      <c r="D120" s="35"/>
+      <c r="E120" s="24" t="s">
+        <v>224</v>
+      </c>
       <c r="F120" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G120" s="41" t="s">
-        <v>12</v>
+      <c r="G120" s="29" t="s">
+        <v>108</v>
       </c>
       <c r="H120" s="26"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="12">
-        <v>6624500</v>
+        <v>6630100</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C121" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="15"/>
-      <c r="E121" s="29"/>
+      <c r="E121" s="24" t="s">
+        <v>224</v>
+      </c>
       <c r="F121" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G121" s="41" t="s">
-        <v>12</v>
+      <c r="G121" s="29" t="s">
+        <v>108</v>
       </c>
       <c r="H121" s="26"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="12">
-        <v>6630000</v>
+        <v>6630200</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C122" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D122" s="35"/>
+      <c r="D122" s="15"/>
       <c r="E122" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F122" s="14" t="s">
         <v>49</v>
@@ -5413,17 +5389,17 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="12">
-        <v>6630100</v>
+        <v>6630300</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C123" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="15"/>
       <c r="E123" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F123" s="14" t="s">
         <v>49</v>
@@ -5435,17 +5411,17 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="12">
-        <v>6630200</v>
+        <v>6630400</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C124" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F124" s="14" t="s">
         <v>49</v>
@@ -5457,17 +5433,17 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="12">
-        <v>6630300</v>
+        <v>6630500</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C125" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F125" s="14" t="s">
         <v>49</v>
@@ -5479,17 +5455,17 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="12">
-        <v>6630400</v>
+        <v>6630600</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C126" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="15"/>
       <c r="E126" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F126" s="14" t="s">
         <v>49</v>
@@ -5501,17 +5477,17 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="12">
-        <v>6630500</v>
+        <v>6630700</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C127" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="15"/>
       <c r="E127" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F127" s="14" t="s">
         <v>49</v>
@@ -5523,17 +5499,17 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="12">
-        <v>6630600</v>
+        <v>6630800</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C128" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F128" s="14" t="s">
         <v>49</v>
@@ -5545,17 +5521,17 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="12">
-        <v>6630700</v>
+        <v>6630900</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C129" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D129" s="15"/>
+      <c r="D129" s="35"/>
       <c r="E129" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F129" s="14" t="s">
         <v>49</v>
@@ -5567,17 +5543,17 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="12">
-        <v>6630800</v>
+        <v>6631000</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C130" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F130" s="14" t="s">
         <v>49</v>
@@ -5589,17 +5565,17 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="12">
-        <v>6630900</v>
+        <v>6631100</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C131" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D131" s="35"/>
+      <c r="D131" s="15"/>
       <c r="E131" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F131" s="14" t="s">
         <v>49</v>
@@ -5611,17 +5587,17 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="12">
-        <v>6631000</v>
+        <v>6631200</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C132" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F132" s="14" t="s">
         <v>49</v>
@@ -5633,17 +5609,17 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="12">
-        <v>6631100</v>
+        <v>6631300</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C133" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F133" s="14" t="s">
         <v>49</v>
@@ -5655,17 +5631,17 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="12">
-        <v>6631200</v>
+        <v>6631400</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C134" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F134" s="14" t="s">
         <v>49</v>
@@ -5677,17 +5653,17 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="12">
-        <v>6631300</v>
+        <v>6631500</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C135" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F135" s="14" t="s">
         <v>49</v>
@@ -5699,17 +5675,17 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="12">
-        <v>6631400</v>
+        <v>6631600</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C136" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F136" s="14" t="s">
         <v>49</v>
@@ -5721,17 +5697,17 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="12">
-        <v>6631500</v>
+        <v>6631700</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C137" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F137" s="14" t="s">
         <v>49</v>
@@ -5743,17 +5719,17 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="12">
-        <v>6631600</v>
+        <v>6631800</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C138" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F138" s="14" t="s">
         <v>49</v>
@@ -5765,17 +5741,17 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="12">
-        <v>6631700</v>
+        <v>6631900</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C139" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F139" s="14" t="s">
         <v>49</v>
@@ -5787,17 +5763,17 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="12">
-        <v>6631800</v>
+        <v>6632000</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C140" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F140" s="14" t="s">
         <v>49</v>
@@ -5809,17 +5785,17 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="12">
-        <v>6631900</v>
+        <v>6632100</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C141" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F141" s="14" t="s">
         <v>49</v>
@@ -5831,17 +5807,17 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="12">
-        <v>6632000</v>
+        <v>6632200</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C142" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D142" s="15"/>
+      <c r="D142" s="35"/>
       <c r="E142" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F142" s="14" t="s">
         <v>49</v>
@@ -5853,17 +5829,17 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="12">
-        <v>6632100</v>
+        <v>6632300</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C143" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="15"/>
       <c r="E143" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F143" s="14" t="s">
         <v>49</v>
@@ -5875,17 +5851,17 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="12">
-        <v>6632200</v>
+        <v>6632400</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C144" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D144" s="35"/>
+      <c r="D144" s="15"/>
       <c r="E144" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F144" s="14" t="s">
         <v>49</v>
@@ -5897,17 +5873,17 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="12">
-        <v>6632300</v>
+        <v>6632500</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C145" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="15"/>
       <c r="E145" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F145" s="14" t="s">
         <v>49</v>
@@ -5919,17 +5895,17 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="12">
-        <v>6632400</v>
+        <v>6632600</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C146" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F146" s="14" t="s">
         <v>49</v>
@@ -5941,17 +5917,17 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="12">
-        <v>6632500</v>
+        <v>6632700</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C147" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="15"/>
       <c r="E147" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F147" s="14" t="s">
         <v>49</v>
@@ -5963,17 +5939,17 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="12">
-        <v>6632600</v>
+        <v>6632800</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C148" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="15"/>
       <c r="E148" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F148" s="14" t="s">
         <v>49</v>
@@ -5985,17 +5961,17 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="12">
-        <v>6632700</v>
+        <v>6632900</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C149" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="15"/>
       <c r="E149" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F149" s="14" t="s">
         <v>49</v>
@@ -6007,17 +5983,17 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="12">
-        <v>6632800</v>
+        <v>6633000</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C150" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F150" s="14" t="s">
         <v>49</v>
@@ -6029,17 +6005,17 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="12">
-        <v>6632900</v>
+        <v>6633100</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C151" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="15"/>
       <c r="E151" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F151" s="14" t="s">
         <v>49</v>
@@ -6051,17 +6027,17 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="12">
-        <v>6633000</v>
+        <v>6633200</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C152" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D152" s="15"/>
+      <c r="D152" s="42"/>
       <c r="E152" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F152" s="14" t="s">
         <v>49</v>
@@ -6071,53 +6047,53 @@
       </c>
       <c r="H152" s="26"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" ht="34" spans="1:8">
       <c r="A153" s="12">
-        <v>6633100</v>
+        <v>6640000</v>
       </c>
       <c r="B153" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="E153" s="29"/>
+      <c r="F153" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G153" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="H153" s="26"/>
+    </row>
+    <row r="154" ht="34" spans="1:8">
+      <c r="A154" s="12">
+        <v>6640100</v>
+      </c>
+      <c r="B154" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="C153" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="15"/>
-      <c r="E153" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="F153" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G153" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="H153" s="26"/>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="12">
-        <v>6633200</v>
-      </c>
-      <c r="B154" s="13" t="s">
+      <c r="C154" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="C154" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="43"/>
-      <c r="E154" s="24" t="s">
-        <v>229</v>
-      </c>
+      <c r="E154" s="38"/>
       <c r="F154" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G154" s="29" t="s">
-        <v>108</v>
+      <c r="G154" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="H154" s="26"/>
     </row>
     <row r="155" ht="34" spans="1:8">
       <c r="A155" s="12">
-        <v>6640000</v>
+        <v>6641000</v>
       </c>
       <c r="B155" s="13" t="s">
         <v>262</v>
@@ -6132,190 +6108,192 @@
       <c r="F155" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G155" s="45" t="s">
-        <v>264</v>
+      <c r="G155" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="H155" s="26"/>
     </row>
     <row r="156" ht="34" spans="1:8">
       <c r="A156" s="12">
-        <v>6640100</v>
+        <v>6641100</v>
       </c>
       <c r="B156" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C156" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="C156" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="E156" s="38"/>
+      <c r="E156" s="43"/>
       <c r="F156" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G156" s="45" t="s">
-        <v>264</v>
+      <c r="G156" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="H156" s="26"/>
     </row>
     <row r="157" ht="34" spans="1:8">
       <c r="A157" s="12">
-        <v>6641000</v>
+        <v>6642000</v>
       </c>
       <c r="B157" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C157" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="19" t="s">
         <v>267</v>
-      </c>
-      <c r="C157" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="19" t="s">
-        <v>268</v>
       </c>
       <c r="E157" s="29"/>
       <c r="F157" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G157" s="45" t="s">
-        <v>264</v>
+      <c r="G157" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="H157" s="26"/>
     </row>
     <row r="158" ht="34" spans="1:8">
       <c r="A158" s="12">
-        <v>6641100</v>
+        <v>6642100</v>
       </c>
       <c r="B158" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C158" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C158" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="E158" s="44"/>
+      <c r="E158" s="29"/>
       <c r="F158" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G158" s="45" t="s">
-        <v>264</v>
+      <c r="G158" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="H158" s="26"/>
     </row>
     <row r="159" ht="34" spans="1:8">
       <c r="A159" s="12">
-        <v>6642000</v>
+        <v>6643000</v>
       </c>
       <c r="B159" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C159" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="19" t="s">
         <v>271</v>
-      </c>
-      <c r="C159" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="19" t="s">
-        <v>272</v>
       </c>
       <c r="E159" s="29"/>
       <c r="F159" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G159" s="45" t="s">
-        <v>264</v>
+      <c r="G159" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="H159" s="26"/>
     </row>
     <row r="160" ht="34" spans="1:8">
       <c r="A160" s="12">
-        <v>6642100</v>
+        <v>6643100</v>
       </c>
       <c r="B160" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C160" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E160" s="29"/>
+      <c r="E160" s="43"/>
       <c r="F160" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G160" s="45" t="s">
-        <v>264</v>
+      <c r="G160" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="H160" s="26"/>
     </row>
     <row r="161" ht="34" spans="1:8">
       <c r="A161" s="12">
-        <v>6643000</v>
+        <v>6644000</v>
       </c>
       <c r="B161" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C161" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="19" t="s">
         <v>275</v>
-      </c>
-      <c r="C161" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="19" t="s">
-        <v>276</v>
       </c>
       <c r="E161" s="29"/>
       <c r="F161" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G161" s="45" t="s">
-        <v>264</v>
+      <c r="G161" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="H161" s="26"/>
     </row>
     <row r="162" ht="34" spans="1:8">
       <c r="A162" s="12">
-        <v>6643100</v>
+        <v>6644100</v>
       </c>
       <c r="B162" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="C162" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="E162" s="44"/>
+      <c r="E162" s="29"/>
       <c r="F162" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G162" s="45" t="s">
-        <v>264</v>
+      <c r="G162" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="H162" s="26"/>
     </row>
     <row r="163" ht="34" spans="1:8">
       <c r="A163" s="12">
-        <v>6644000</v>
+        <v>6645000</v>
       </c>
       <c r="B163" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C163" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C163" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="19" t="s">
+      <c r="E163" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="E163" s="29"/>
       <c r="F163" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G163" s="45" t="s">
-        <v>264</v>
+      <c r="G163" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="H163" s="26"/>
     </row>
     <row r="164" ht="34" spans="1:8">
       <c r="A164" s="12">
-        <v>6644100</v>
+        <v>6645100</v>
       </c>
       <c r="B164" s="13" t="s">
         <v>281</v>
@@ -6330,14 +6308,14 @@
       <c r="F164" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G164" s="45" t="s">
-        <v>264</v>
+      <c r="G164" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="H164" s="26"/>
     </row>
-    <row r="165" ht="34" spans="1:8">
+    <row r="165" ht="51" spans="1:8">
       <c r="A165" s="12">
-        <v>6645000</v>
+        <v>6646000</v>
       </c>
       <c r="B165" s="13" t="s">
         <v>283</v>
@@ -6348,600 +6326,600 @@
       <c r="D165" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="E165" s="24" t="s">
-        <v>285</v>
-      </c>
+      <c r="E165" s="29"/>
       <c r="F165" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G165" s="45" t="s">
-        <v>264</v>
+      <c r="G165" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="H165" s="26"/>
     </row>
     <row r="166" ht="34" spans="1:8">
       <c r="A166" s="12">
-        <v>6645100</v>
+        <v>6646100</v>
       </c>
       <c r="B166" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="19" t="s">
         <v>286</v>
-      </c>
-      <c r="C166" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="19" t="s">
-        <v>287</v>
       </c>
       <c r="E166" s="29"/>
       <c r="F166" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G166" s="45" t="s">
-        <v>264</v>
+      <c r="G166" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="H166" s="26"/>
     </row>
-    <row r="167" ht="51" spans="1:8">
+    <row r="167" ht="34" spans="1:8">
       <c r="A167" s="12">
-        <v>6646000</v>
+        <v>6647000</v>
       </c>
       <c r="B167" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="C167" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="E167" s="29"/>
+      <c r="E167" s="24" t="s">
+        <v>280</v>
+      </c>
       <c r="F167" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G167" s="45" t="s">
-        <v>264</v>
+      <c r="G167" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="H167" s="26"/>
     </row>
     <row r="168" ht="34" spans="1:8">
       <c r="A168" s="12">
-        <v>6646100</v>
+        <v>6647100</v>
       </c>
       <c r="B168" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C168" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="19" t="s">
         <v>290</v>
-      </c>
-      <c r="C168" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="19" t="s">
-        <v>291</v>
       </c>
       <c r="E168" s="29"/>
       <c r="F168" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G168" s="45" t="s">
-        <v>264</v>
+      <c r="G168" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="H168" s="26"/>
     </row>
-    <row r="169" ht="34" spans="1:8">
+    <row r="169" spans="1:8">
       <c r="A169" s="12">
-        <v>6647000</v>
+        <v>6800000</v>
       </c>
       <c r="B169" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C169" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="C169" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="19" t="s">
+      <c r="D169" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="E169" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="F169" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G169" s="45" t="s">
-        <v>264</v>
+      <c r="E169" s="29"/>
+      <c r="F169" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="G169" s="40" t="s">
+        <v>12</v>
       </c>
       <c r="H169" s="26"/>
     </row>
-    <row r="170" ht="34" spans="1:8">
+    <row r="170" spans="1:8">
       <c r="A170" s="12">
-        <v>6647100</v>
+        <v>6800200</v>
       </c>
       <c r="B170" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C170" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D170" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E170" s="29"/>
+      <c r="F170" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="C170" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="E170" s="29"/>
-      <c r="F170" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G170" s="45" t="s">
-        <v>264</v>
+      <c r="G170" s="40" t="s">
+        <v>12</v>
       </c>
       <c r="H170" s="26"/>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="12">
-        <v>6800000</v>
+        <v>6810100</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="C171" s="44" t="s">
         <v>297</v>
+      </c>
+      <c r="C171" s="43" t="s">
+        <v>292</v>
       </c>
       <c r="D171" s="15" t="s">
         <v>298</v>
       </c>
       <c r="E171" s="29"/>
       <c r="F171" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G171" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G171" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H171" s="26"/>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="12">
-        <v>6800200</v>
+        <v>6820000</v>
       </c>
       <c r="B172" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C172" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D172" s="15" t="s">
         <v>300</v>
-      </c>
-      <c r="C172" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D172" s="15" t="s">
-        <v>301</v>
       </c>
       <c r="E172" s="29"/>
       <c r="F172" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G172" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G172" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H172" s="26"/>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="12">
-        <v>6810100</v>
+        <v>6820100</v>
       </c>
       <c r="B173" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C173" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D173" s="15" t="s">
         <v>302</v>
-      </c>
-      <c r="C173" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D173" s="15" t="s">
-        <v>303</v>
       </c>
       <c r="E173" s="29"/>
       <c r="F173" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G173" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G173" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H173" s="26"/>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="12">
-        <v>6820000</v>
+        <v>6820200</v>
       </c>
       <c r="B174" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C174" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D174" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="C174" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D174" s="15" t="s">
-        <v>305</v>
       </c>
       <c r="E174" s="29"/>
       <c r="F174" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G174" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G174" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H174" s="26"/>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="12">
-        <v>6820100</v>
+        <v>6820300</v>
       </c>
       <c r="B175" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C175" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D175" s="15" t="s">
         <v>306</v>
-      </c>
-      <c r="C175" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D175" s="15" t="s">
-        <v>307</v>
       </c>
       <c r="E175" s="29"/>
       <c r="F175" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G175" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G175" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H175" s="26"/>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="12">
-        <v>6820200</v>
+        <v>6820400</v>
       </c>
       <c r="B176" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C176" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D176" s="15" t="s">
         <v>308</v>
-      </c>
-      <c r="C176" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D176" s="15" t="s">
-        <v>309</v>
       </c>
       <c r="E176" s="29"/>
       <c r="F176" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G176" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G176" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H176" s="26"/>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="12">
-        <v>6820300</v>
+        <v>6820500</v>
       </c>
       <c r="B177" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C177" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D177" s="15" t="s">
         <v>310</v>
-      </c>
-      <c r="C177" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D177" s="15" t="s">
-        <v>311</v>
       </c>
       <c r="E177" s="29"/>
       <c r="F177" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G177" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G177" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H177" s="26"/>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="12">
-        <v>6820400</v>
+        <v>6820600</v>
       </c>
       <c r="B178" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C178" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D178" s="15" t="s">
         <v>312</v>
-      </c>
-      <c r="C178" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D178" s="15" t="s">
-        <v>313</v>
       </c>
       <c r="E178" s="29"/>
       <c r="F178" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G178" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G178" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H178" s="26"/>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="12">
-        <v>6820500</v>
+        <v>6830000</v>
       </c>
       <c r="B179" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C179" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D179" s="15" t="s">
         <v>314</v>
-      </c>
-      <c r="C179" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D179" s="15" t="s">
-        <v>315</v>
       </c>
       <c r="E179" s="29"/>
       <c r="F179" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G179" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G179" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H179" s="26"/>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="12">
-        <v>6820600</v>
+        <v>6830100</v>
       </c>
       <c r="B180" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C180" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D180" s="15" t="s">
         <v>316</v>
-      </c>
-      <c r="C180" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D180" s="15" t="s">
-        <v>317</v>
       </c>
       <c r="E180" s="29"/>
       <c r="F180" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G180" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G180" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H180" s="26"/>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="12">
-        <v>6830000</v>
+        <v>6830200</v>
       </c>
       <c r="B181" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C181" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D181" s="15" t="s">
         <v>318</v>
-      </c>
-      <c r="C181" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D181" s="15" t="s">
-        <v>319</v>
       </c>
       <c r="E181" s="29"/>
       <c r="F181" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G181" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G181" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H181" s="26"/>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="12">
-        <v>6830100</v>
+        <v>6830300</v>
       </c>
       <c r="B182" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C182" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D182" s="15" t="s">
         <v>320</v>
-      </c>
-      <c r="C182" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D182" s="15" t="s">
-        <v>321</v>
       </c>
       <c r="E182" s="29"/>
       <c r="F182" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G182" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G182" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H182" s="26"/>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="12">
-        <v>6830200</v>
+        <v>6830400</v>
       </c>
       <c r="B183" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C183" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D183" s="15" t="s">
         <v>322</v>
-      </c>
-      <c r="C183" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D183" s="15" t="s">
-        <v>323</v>
       </c>
       <c r="E183" s="29"/>
       <c r="F183" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G183" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G183" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H183" s="26"/>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="12">
-        <v>6830300</v>
+        <v>6840000</v>
       </c>
       <c r="B184" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C184" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D184" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="C184" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D184" s="15" t="s">
-        <v>325</v>
       </c>
       <c r="E184" s="29"/>
       <c r="F184" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G184" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G184" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H184" s="26"/>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="12">
-        <v>6830400</v>
-      </c>
-      <c r="B185" s="13" t="s">
+        <v>6840100</v>
+      </c>
+      <c r="B185" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C185" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D185" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="C185" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D185" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="E185" s="29"/>
+      <c r="E185" s="27"/>
       <c r="F185" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G185" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G185" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H185" s="26"/>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="12">
-        <v>6840000</v>
+        <v>6840200</v>
       </c>
       <c r="B186" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="C186" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D186" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="C186" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D186" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="E186" s="29"/>
+      <c r="E186" s="27"/>
       <c r="F186" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G186" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G186" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H186" s="26"/>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="12">
-        <v>6840100</v>
-      </c>
-      <c r="B187" s="16" t="s">
+        <v>6850000</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="C187" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D187" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="C187" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D187" s="15" t="s">
+      <c r="E187" s="29"/>
+      <c r="F187" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="G187" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H187" s="26"/>
+    </row>
+    <row r="188" ht="17" spans="1:8">
+      <c r="A188" s="12">
+        <v>6850100</v>
+      </c>
+      <c r="B188" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="E187" s="27"/>
-      <c r="F187" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G187" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="H187" s="26"/>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" s="12">
-        <v>6840200</v>
-      </c>
-      <c r="B188" s="13" t="s">
+      <c r="C188" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D188" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="C188" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D188" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="E188" s="27"/>
+      <c r="E188" s="24"/>
       <c r="F188" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G188" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G188" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H188" s="26"/>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="12">
-        <v>6850000</v>
+        <v>6850200</v>
       </c>
       <c r="B189" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C189" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D189" s="15" t="s">
         <v>334</v>
-      </c>
-      <c r="C189" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D189" s="15" t="s">
-        <v>335</v>
       </c>
       <c r="E189" s="29"/>
       <c r="F189" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G189" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G189" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H189" s="26"/>
     </row>
-    <row r="190" ht="17" spans="1:8">
+    <row r="190" ht="34" spans="1:8">
       <c r="A190" s="12">
-        <v>6850100</v>
-      </c>
-      <c r="B190" s="20" t="s">
+        <v>6850500</v>
+      </c>
+      <c r="B190" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C190" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D190" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="C190" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D190" s="15" t="s">
+      <c r="E190" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="E190" s="24"/>
       <c r="F190" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G190" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G190" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H190" s="26"/>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" ht="17" spans="1:8">
       <c r="A191" s="12">
-        <v>6850200</v>
+        <v>6850700</v>
       </c>
       <c r="B191" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="C191" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D191" s="15" t="s">
+      <c r="C191" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D191" s="17" t="s">
         <v>339</v>
       </c>
       <c r="E191" s="29"/>
       <c r="F191" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G191" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G191" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H191" s="26"/>
     </row>
     <row r="192" ht="34" spans="1:8">
       <c r="A192" s="12">
-        <v>6850500</v>
+        <v>6850800</v>
       </c>
       <c r="B192" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="C192" s="44" t="s">
-        <v>297</v>
+      <c r="C192" s="43" t="s">
+        <v>292</v>
       </c>
       <c r="D192" s="15" t="s">
         <v>341</v>
@@ -6950,183 +6928,157 @@
         <v>342</v>
       </c>
       <c r="F192" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G192" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G192" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H192" s="26"/>
     </row>
     <row r="193" ht="17" spans="1:8">
       <c r="A193" s="12">
-        <v>6850700</v>
+        <v>6850900</v>
       </c>
       <c r="B193" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="C193" s="44" t="s">
-        <v>297</v>
+      <c r="C193" s="43" t="s">
+        <v>292</v>
       </c>
       <c r="D193" s="17" t="s">
         <v>344</v>
       </c>
       <c r="E193" s="29"/>
       <c r="F193" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G193" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G193" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H193" s="26"/>
     </row>
-    <row r="194" ht="34" spans="1:8">
+    <row r="194" ht="17" spans="1:8">
       <c r="A194" s="12">
-        <v>6850800</v>
+        <v>6851200</v>
       </c>
       <c r="B194" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="C194" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D194" s="15" t="s">
+      <c r="C194" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D194" s="17" t="s">
         <v>346</v>
       </c>
       <c r="E194" s="58" t="s">
         <v>347</v>
       </c>
       <c r="F194" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G194" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G194" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H194" s="26"/>
     </row>
     <row r="195" ht="17" spans="1:8">
       <c r="A195" s="12">
-        <v>6850900</v>
+        <v>6851300</v>
       </c>
       <c r="B195" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="C195" s="44" t="s">
-        <v>297</v>
+      <c r="C195" s="43" t="s">
+        <v>292</v>
       </c>
       <c r="D195" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="E195" s="29"/>
+      <c r="E195" s="58" t="s">
+        <v>347</v>
+      </c>
       <c r="F195" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G195" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G195" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H195" s="26"/>
     </row>
     <row r="196" ht="17" spans="1:8">
       <c r="A196" s="12">
-        <v>6851200</v>
+        <v>6851400</v>
       </c>
       <c r="B196" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="C196" s="44" t="s">
-        <v>297</v>
+      <c r="C196" s="43" t="s">
+        <v>292</v>
       </c>
       <c r="D196" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="E196" s="59" t="s">
+      <c r="E196" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="F196" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="G196" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H196" s="26"/>
+    </row>
+    <row r="197" ht="17.55" spans="1:8">
+      <c r="A197" s="47">
+        <v>6851700</v>
+      </c>
+      <c r="B197" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="F196" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G196" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="H196" s="26"/>
-    </row>
-    <row r="197" ht="17" spans="1:8">
-      <c r="A197" s="12">
-        <v>6851300</v>
-      </c>
-      <c r="B197" s="13" t="s">
+      <c r="C197" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="D197" s="50" t="s">
         <v>353</v>
       </c>
-      <c r="C197" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D197" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="E197" s="59" t="s">
-        <v>352</v>
-      </c>
-      <c r="F197" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G197" s="41" t="s">
+      <c r="E197" s="59"/>
+      <c r="F197" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="G197" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H197" s="26"/>
     </row>
-    <row r="198" ht="17" spans="1:8">
-      <c r="A198" s="12">
-        <v>6851400</v>
-      </c>
-      <c r="B198" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="C198" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D198" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="E198" s="59" t="s">
-        <v>352</v>
-      </c>
-      <c r="F198" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G198" s="41" t="s">
-        <v>12</v>
-      </c>
+    <row r="198" ht="17.55" spans="1:8">
+      <c r="A198" s="51"/>
+      <c r="B198" s="51"/>
+      <c r="C198" s="52"/>
+      <c r="D198" s="53"/>
+      <c r="E198" s="52"/>
+      <c r="F198" s="52"/>
+      <c r="G198" s="60"/>
       <c r="H198" s="26"/>
     </row>
-    <row r="199" ht="17.55" spans="1:8">
-      <c r="A199" s="47">
-        <v>6851700</v>
-      </c>
-      <c r="B199" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="C199" s="49" t="s">
-        <v>297</v>
-      </c>
-      <c r="D199" s="50" t="s">
-        <v>358</v>
-      </c>
-      <c r="E199" s="60"/>
-      <c r="F199" s="60" t="s">
-        <v>299</v>
-      </c>
-      <c r="G199" s="41" t="s">
-        <v>12</v>
-      </c>
+    <row r="199" spans="1:8">
+      <c r="A199" s="51"/>
+      <c r="B199" s="51"/>
+      <c r="C199" s="52"/>
+      <c r="D199" s="53"/>
+      <c r="E199" s="52"/>
+      <c r="F199" s="52"/>
+      <c r="G199" s="52"/>
       <c r="H199" s="26"/>
     </row>
-    <row r="200" ht="17.55" spans="1:8">
+    <row r="200" spans="1:8">
       <c r="A200" s="51"/>
       <c r="B200" s="51"/>
       <c r="C200" s="52"/>
       <c r="D200" s="53"/>
       <c r="E200" s="52"/>
       <c r="F200" s="52"/>
-      <c r="G200" s="61"/>
+      <c r="G200" s="52"/>
       <c r="H200" s="26"/>
     </row>
     <row r="201" spans="1:8">
@@ -7254,9 +7206,9 @@
       <c r="B213" s="51"/>
       <c r="C213" s="52"/>
       <c r="D213" s="53"/>
-      <c r="E213" s="52"/>
-      <c r="F213" s="52"/>
-      <c r="G213" s="52"/>
+      <c r="E213" s="61"/>
+      <c r="F213" s="61"/>
+      <c r="G213" s="61"/>
       <c r="H213" s="26"/>
     </row>
     <row r="214" spans="1:8">
@@ -7264,9 +7216,9 @@
       <c r="B214" s="51"/>
       <c r="C214" s="52"/>
       <c r="D214" s="53"/>
-      <c r="E214" s="52"/>
-      <c r="F214" s="52"/>
-      <c r="G214" s="52"/>
+      <c r="E214" s="61"/>
+      <c r="F214" s="61"/>
+      <c r="G214" s="61"/>
       <c r="H214" s="26"/>
     </row>
     <row r="215" spans="1:8">
@@ -7274,9 +7226,9 @@
       <c r="B215" s="51"/>
       <c r="C215" s="52"/>
       <c r="D215" s="53"/>
-      <c r="E215" s="62"/>
-      <c r="F215" s="62"/>
-      <c r="G215" s="62"/>
+      <c r="E215" s="61"/>
+      <c r="F215" s="61"/>
+      <c r="G215" s="61"/>
       <c r="H215" s="26"/>
     </row>
     <row r="216" spans="1:8">
@@ -7284,9 +7236,9 @@
       <c r="B216" s="51"/>
       <c r="C216" s="52"/>
       <c r="D216" s="53"/>
-      <c r="E216" s="62"/>
-      <c r="F216" s="62"/>
-      <c r="G216" s="62"/>
+      <c r="E216" s="61"/>
+      <c r="F216" s="61"/>
+      <c r="G216" s="61"/>
       <c r="H216" s="26"/>
     </row>
     <row r="217" spans="1:8">
@@ -7294,9 +7246,9 @@
       <c r="B217" s="51"/>
       <c r="C217" s="52"/>
       <c r="D217" s="53"/>
-      <c r="E217" s="62"/>
-      <c r="F217" s="62"/>
-      <c r="G217" s="62"/>
+      <c r="E217" s="61"/>
+      <c r="F217" s="61"/>
+      <c r="G217" s="61"/>
       <c r="H217" s="26"/>
     </row>
     <row r="218" spans="1:8">
@@ -7304,9 +7256,9 @@
       <c r="B218" s="51"/>
       <c r="C218" s="52"/>
       <c r="D218" s="53"/>
-      <c r="E218" s="62"/>
-      <c r="F218" s="62"/>
-      <c r="G218" s="62"/>
+      <c r="E218" s="61"/>
+      <c r="F218" s="61"/>
+      <c r="G218" s="61"/>
       <c r="H218" s="26"/>
     </row>
     <row r="219" spans="1:8">
@@ -7314,9 +7266,9 @@
       <c r="B219" s="51"/>
       <c r="C219" s="52"/>
       <c r="D219" s="53"/>
-      <c r="E219" s="62"/>
-      <c r="F219" s="62"/>
-      <c r="G219" s="62"/>
+      <c r="E219" s="61"/>
+      <c r="F219" s="61"/>
+      <c r="G219" s="61"/>
       <c r="H219" s="26"/>
     </row>
     <row r="220" spans="1:8">
@@ -7324,9 +7276,9 @@
       <c r="B220" s="51"/>
       <c r="C220" s="52"/>
       <c r="D220" s="53"/>
-      <c r="E220" s="62"/>
-      <c r="F220" s="62"/>
-      <c r="G220" s="62"/>
+      <c r="E220" s="61"/>
+      <c r="F220" s="61"/>
+      <c r="G220" s="61"/>
       <c r="H220" s="26"/>
     </row>
     <row r="221" spans="1:8">
@@ -7334,9 +7286,9 @@
       <c r="B221" s="51"/>
       <c r="C221" s="52"/>
       <c r="D221" s="53"/>
-      <c r="E221" s="62"/>
-      <c r="F221" s="62"/>
-      <c r="G221" s="62"/>
+      <c r="E221" s="61"/>
+      <c r="F221" s="61"/>
+      <c r="G221" s="61"/>
       <c r="H221" s="26"/>
     </row>
     <row r="222" spans="1:8">
@@ -7344,9 +7296,9 @@
       <c r="B222" s="51"/>
       <c r="C222" s="52"/>
       <c r="D222" s="53"/>
-      <c r="E222" s="62"/>
-      <c r="F222" s="62"/>
-      <c r="G222" s="62"/>
+      <c r="E222" s="61"/>
+      <c r="F222" s="61"/>
+      <c r="G222" s="61"/>
       <c r="H222" s="26"/>
     </row>
     <row r="223" spans="1:8">
@@ -7354,9 +7306,9 @@
       <c r="B223" s="51"/>
       <c r="C223" s="52"/>
       <c r="D223" s="53"/>
-      <c r="E223" s="62"/>
-      <c r="F223" s="62"/>
-      <c r="G223" s="62"/>
+      <c r="E223" s="61"/>
+      <c r="F223" s="61"/>
+      <c r="G223" s="61"/>
       <c r="H223" s="26"/>
     </row>
     <row r="224" spans="1:8">
@@ -7364,9 +7316,9 @@
       <c r="B224" s="51"/>
       <c r="C224" s="52"/>
       <c r="D224" s="53"/>
-      <c r="E224" s="62"/>
-      <c r="F224" s="62"/>
-      <c r="G224" s="62"/>
+      <c r="E224" s="61"/>
+      <c r="F224" s="61"/>
+      <c r="G224" s="61"/>
       <c r="H224" s="26"/>
     </row>
     <row r="225" spans="1:8">
@@ -7374,9 +7326,9 @@
       <c r="B225" s="51"/>
       <c r="C225" s="52"/>
       <c r="D225" s="53"/>
-      <c r="E225" s="62"/>
-      <c r="F225" s="62"/>
-      <c r="G225" s="62"/>
+      <c r="E225" s="61"/>
+      <c r="F225" s="61"/>
+      <c r="G225" s="61"/>
       <c r="H225" s="26"/>
     </row>
     <row r="226" spans="1:8">
@@ -7384,9 +7336,9 @@
       <c r="B226" s="51"/>
       <c r="C226" s="52"/>
       <c r="D226" s="53"/>
-      <c r="E226" s="62"/>
-      <c r="F226" s="62"/>
-      <c r="G226" s="62"/>
+      <c r="E226" s="61"/>
+      <c r="F226" s="61"/>
+      <c r="G226" s="61"/>
       <c r="H226" s="26"/>
     </row>
     <row r="227" spans="1:8">
@@ -7394,9 +7346,9 @@
       <c r="B227" s="51"/>
       <c r="C227" s="52"/>
       <c r="D227" s="53"/>
-      <c r="E227" s="62"/>
-      <c r="F227" s="62"/>
-      <c r="G227" s="62"/>
+      <c r="E227" s="61"/>
+      <c r="F227" s="61"/>
+      <c r="G227" s="61"/>
       <c r="H227" s="26"/>
     </row>
     <row r="228" spans="1:8">
@@ -7404,9 +7356,9 @@
       <c r="B228" s="51"/>
       <c r="C228" s="52"/>
       <c r="D228" s="53"/>
-      <c r="E228" s="62"/>
-      <c r="F228" s="62"/>
-      <c r="G228" s="62"/>
+      <c r="E228" s="61"/>
+      <c r="F228" s="61"/>
+      <c r="G228" s="61"/>
       <c r="H228" s="26"/>
     </row>
     <row r="229" spans="1:8">
@@ -7414,9 +7366,9 @@
       <c r="B229" s="51"/>
       <c r="C229" s="52"/>
       <c r="D229" s="53"/>
-      <c r="E229" s="62"/>
-      <c r="F229" s="62"/>
-      <c r="G229" s="62"/>
+      <c r="E229" s="61"/>
+      <c r="F229" s="61"/>
+      <c r="G229" s="61"/>
       <c r="H229" s="26"/>
     </row>
     <row r="230" spans="1:8">
@@ -7424,9 +7376,9 @@
       <c r="B230" s="51"/>
       <c r="C230" s="52"/>
       <c r="D230" s="53"/>
-      <c r="E230" s="62"/>
-      <c r="F230" s="62"/>
-      <c r="G230" s="62"/>
+      <c r="E230" s="61"/>
+      <c r="F230" s="61"/>
+      <c r="G230" s="61"/>
       <c r="H230" s="26"/>
     </row>
     <row r="231" spans="1:8">
@@ -7434,9 +7386,9 @@
       <c r="B231" s="51"/>
       <c r="C231" s="52"/>
       <c r="D231" s="53"/>
-      <c r="E231" s="62"/>
-      <c r="F231" s="62"/>
-      <c r="G231" s="62"/>
+      <c r="E231" s="61"/>
+      <c r="F231" s="61"/>
+      <c r="G231" s="61"/>
       <c r="H231" s="26"/>
     </row>
     <row r="232" spans="1:8">
@@ -7444,9 +7396,9 @@
       <c r="B232" s="51"/>
       <c r="C232" s="52"/>
       <c r="D232" s="53"/>
-      <c r="E232" s="62"/>
-      <c r="F232" s="62"/>
-      <c r="G232" s="62"/>
+      <c r="E232" s="61"/>
+      <c r="F232" s="61"/>
+      <c r="G232" s="61"/>
       <c r="H232" s="26"/>
     </row>
     <row r="233" spans="1:8">
@@ -7454,89 +7406,89 @@
       <c r="B233" s="51"/>
       <c r="C233" s="52"/>
       <c r="D233" s="53"/>
-      <c r="E233" s="62"/>
-      <c r="F233" s="62"/>
-      <c r="G233" s="62"/>
+      <c r="E233" s="61"/>
+      <c r="F233" s="61"/>
+      <c r="G233" s="61"/>
       <c r="H233" s="26"/>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="51"/>
       <c r="B234" s="51"/>
       <c r="C234" s="52"/>
-      <c r="D234" s="53"/>
-      <c r="E234" s="62"/>
-      <c r="F234" s="62"/>
-      <c r="G234" s="62"/>
+      <c r="D234" s="54"/>
+      <c r="E234" s="61"/>
+      <c r="F234" s="61"/>
+      <c r="G234" s="61"/>
       <c r="H234" s="26"/>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="51"/>
       <c r="B235" s="51"/>
       <c r="C235" s="52"/>
-      <c r="D235" s="53"/>
-      <c r="E235" s="62"/>
-      <c r="F235" s="62"/>
-      <c r="G235" s="62"/>
+      <c r="D235" s="34"/>
+      <c r="E235" s="61"/>
+      <c r="F235" s="61"/>
+      <c r="G235" s="61"/>
       <c r="H235" s="26"/>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="51"/>
       <c r="B236" s="51"/>
       <c r="C236" s="52"/>
-      <c r="D236" s="54"/>
-      <c r="E236" s="62"/>
-      <c r="F236" s="62"/>
-      <c r="G236" s="62"/>
+      <c r="D236" s="55"/>
+      <c r="E236" s="52"/>
+      <c r="F236" s="52"/>
+      <c r="G236" s="52"/>
       <c r="H236" s="26"/>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="51"/>
       <c r="B237" s="51"/>
       <c r="C237" s="52"/>
-      <c r="D237" s="34"/>
-      <c r="E237" s="62"/>
-      <c r="F237" s="62"/>
-      <c r="G237" s="62"/>
+      <c r="D237" s="55"/>
+      <c r="E237" s="52"/>
+      <c r="F237" s="52"/>
+      <c r="G237" s="52"/>
       <c r="H237" s="26"/>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="51"/>
       <c r="B238" s="51"/>
       <c r="C238" s="52"/>
-      <c r="D238" s="55"/>
-      <c r="E238" s="52"/>
-      <c r="F238" s="52"/>
-      <c r="G238" s="52"/>
+      <c r="D238" s="56"/>
+      <c r="E238" s="61"/>
+      <c r="F238" s="61"/>
+      <c r="G238" s="61"/>
       <c r="H238" s="26"/>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="51"/>
       <c r="B239" s="51"/>
       <c r="C239" s="52"/>
-      <c r="D239" s="55"/>
-      <c r="E239" s="52"/>
-      <c r="F239" s="52"/>
-      <c r="G239" s="52"/>
+      <c r="D239" s="53"/>
+      <c r="E239" s="61"/>
+      <c r="F239" s="61"/>
+      <c r="G239" s="61"/>
       <c r="H239" s="26"/>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="51"/>
       <c r="B240" s="51"/>
       <c r="C240" s="52"/>
-      <c r="D240" s="56"/>
-      <c r="E240" s="62"/>
-      <c r="F240" s="62"/>
-      <c r="G240" s="62"/>
+      <c r="D240" s="53"/>
+      <c r="E240" s="61"/>
+      <c r="F240" s="61"/>
+      <c r="G240" s="61"/>
       <c r="H240" s="26"/>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="51"/>
       <c r="B241" s="51"/>
       <c r="C241" s="52"/>
-      <c r="D241" s="53"/>
+      <c r="D241" s="34"/>
       <c r="E241" s="62"/>
-      <c r="F241" s="62"/>
-      <c r="G241" s="62"/>
+      <c r="F241" s="61"/>
+      <c r="G241" s="61"/>
       <c r="H241" s="26"/>
     </row>
     <row r="242" spans="1:8">
@@ -7544,19 +7496,19 @@
       <c r="B242" s="51"/>
       <c r="C242" s="52"/>
       <c r="D242" s="53"/>
-      <c r="E242" s="62"/>
-      <c r="F242" s="62"/>
-      <c r="G242" s="62"/>
+      <c r="E242" s="61"/>
+      <c r="F242" s="61"/>
+      <c r="G242" s="61"/>
       <c r="H242" s="26"/>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="51"/>
       <c r="B243" s="51"/>
       <c r="C243" s="52"/>
-      <c r="D243" s="34"/>
-      <c r="E243" s="63"/>
-      <c r="F243" s="62"/>
-      <c r="G243" s="62"/>
+      <c r="D243" s="55"/>
+      <c r="E243" s="52"/>
+      <c r="F243" s="52"/>
+      <c r="G243" s="52"/>
       <c r="H243" s="26"/>
     </row>
     <row r="244" spans="1:8">
@@ -7564,29 +7516,29 @@
       <c r="B244" s="51"/>
       <c r="C244" s="52"/>
       <c r="D244" s="53"/>
-      <c r="E244" s="62"/>
-      <c r="F244" s="62"/>
-      <c r="G244" s="62"/>
+      <c r="E244" s="61"/>
+      <c r="F244" s="61"/>
+      <c r="G244" s="61"/>
       <c r="H244" s="26"/>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="51"/>
       <c r="B245" s="51"/>
       <c r="C245" s="52"/>
-      <c r="D245" s="55"/>
-      <c r="E245" s="52"/>
-      <c r="F245" s="52"/>
-      <c r="G245" s="52"/>
+      <c r="D245" s="53"/>
+      <c r="E245" s="61"/>
+      <c r="F245" s="61"/>
+      <c r="G245" s="61"/>
       <c r="H245" s="26"/>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="51"/>
       <c r="B246" s="51"/>
       <c r="C246" s="52"/>
-      <c r="D246" s="53"/>
-      <c r="E246" s="62"/>
-      <c r="F246" s="62"/>
-      <c r="G246" s="62"/>
+      <c r="D246" s="57"/>
+      <c r="E246" s="52"/>
+      <c r="F246" s="52"/>
+      <c r="G246" s="52"/>
       <c r="H246" s="26"/>
     </row>
     <row r="247" spans="1:8">
@@ -7594,16 +7546,16 @@
       <c r="B247" s="51"/>
       <c r="C247" s="52"/>
       <c r="D247" s="53"/>
-      <c r="E247" s="62"/>
-      <c r="F247" s="62"/>
-      <c r="G247" s="62"/>
+      <c r="E247" s="61"/>
+      <c r="F247" s="61"/>
+      <c r="G247" s="61"/>
       <c r="H247" s="26"/>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="51"/>
       <c r="B248" s="51"/>
       <c r="C248" s="52"/>
-      <c r="D248" s="57"/>
+      <c r="D248" s="55"/>
       <c r="E248" s="52"/>
       <c r="F248" s="52"/>
       <c r="G248" s="52"/>
@@ -7614,19 +7566,19 @@
       <c r="B249" s="51"/>
       <c r="C249" s="52"/>
       <c r="D249" s="53"/>
-      <c r="E249" s="62"/>
-      <c r="F249" s="62"/>
-      <c r="G249" s="62"/>
+      <c r="E249" s="61"/>
+      <c r="F249" s="61"/>
+      <c r="G249" s="61"/>
       <c r="H249" s="26"/>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="51"/>
       <c r="B250" s="51"/>
       <c r="C250" s="52"/>
-      <c r="D250" s="55"/>
-      <c r="E250" s="52"/>
-      <c r="F250" s="52"/>
-      <c r="G250" s="52"/>
+      <c r="D250" s="53"/>
+      <c r="E250" s="61"/>
+      <c r="F250" s="61"/>
+      <c r="G250" s="61"/>
       <c r="H250" s="26"/>
     </row>
     <row r="251" spans="1:8">
@@ -7634,9 +7586,9 @@
       <c r="B251" s="51"/>
       <c r="C251" s="52"/>
       <c r="D251" s="53"/>
-      <c r="E251" s="62"/>
-      <c r="F251" s="62"/>
-      <c r="G251" s="62"/>
+      <c r="E251" s="61"/>
+      <c r="F251" s="61"/>
+      <c r="G251" s="61"/>
       <c r="H251" s="26"/>
     </row>
     <row r="252" spans="1:8">
@@ -7644,19 +7596,19 @@
       <c r="B252" s="51"/>
       <c r="C252" s="52"/>
       <c r="D252" s="53"/>
-      <c r="E252" s="62"/>
-      <c r="F252" s="62"/>
-      <c r="G252" s="62"/>
+      <c r="E252" s="61"/>
+      <c r="F252" s="61"/>
+      <c r="G252" s="61"/>
       <c r="H252" s="26"/>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="51"/>
       <c r="B253" s="51"/>
       <c r="C253" s="52"/>
-      <c r="D253" s="53"/>
-      <c r="E253" s="62"/>
-      <c r="F253" s="62"/>
-      <c r="G253" s="62"/>
+      <c r="D253" s="55"/>
+      <c r="E253" s="61"/>
+      <c r="F253" s="61"/>
+      <c r="G253" s="61"/>
       <c r="H253" s="26"/>
     </row>
     <row r="254" spans="1:8">
@@ -7664,9 +7616,9 @@
       <c r="B254" s="51"/>
       <c r="C254" s="52"/>
       <c r="D254" s="53"/>
-      <c r="E254" s="62"/>
-      <c r="F254" s="62"/>
-      <c r="G254" s="62"/>
+      <c r="E254" s="61"/>
+      <c r="F254" s="61"/>
+      <c r="G254" s="61"/>
       <c r="H254" s="26"/>
     </row>
     <row r="255" spans="1:8">
@@ -7674,9 +7626,9 @@
       <c r="B255" s="51"/>
       <c r="C255" s="52"/>
       <c r="D255" s="55"/>
-      <c r="E255" s="62"/>
-      <c r="F255" s="62"/>
-      <c r="G255" s="62"/>
+      <c r="E255" s="61"/>
+      <c r="F255" s="61"/>
+      <c r="G255" s="61"/>
       <c r="H255" s="26"/>
     </row>
     <row r="256" spans="1:8">
@@ -7684,19 +7636,19 @@
       <c r="B256" s="51"/>
       <c r="C256" s="52"/>
       <c r="D256" s="53"/>
-      <c r="E256" s="62"/>
-      <c r="F256" s="62"/>
-      <c r="G256" s="62"/>
+      <c r="E256" s="52"/>
+      <c r="F256" s="52"/>
+      <c r="G256" s="52"/>
       <c r="H256" s="26"/>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="51"/>
       <c r="B257" s="51"/>
       <c r="C257" s="52"/>
-      <c r="D257" s="55"/>
-      <c r="E257" s="62"/>
-      <c r="F257" s="62"/>
-      <c r="G257" s="62"/>
+      <c r="D257" s="53"/>
+      <c r="E257" s="52"/>
+      <c r="F257" s="52"/>
+      <c r="G257" s="52"/>
       <c r="H257" s="26"/>
     </row>
     <row r="258" spans="1:8">
@@ -7934,9 +7886,9 @@
       <c r="B281" s="51"/>
       <c r="C281" s="52"/>
       <c r="D281" s="53"/>
-      <c r="E281" s="52"/>
-      <c r="F281" s="52"/>
-      <c r="G281" s="52"/>
+      <c r="E281" s="61"/>
+      <c r="F281" s="61"/>
+      <c r="G281" s="61"/>
       <c r="H281" s="26"/>
     </row>
     <row r="282" spans="1:8">
@@ -7944,9 +7896,9 @@
       <c r="B282" s="51"/>
       <c r="C282" s="52"/>
       <c r="D282" s="53"/>
-      <c r="E282" s="52"/>
-      <c r="F282" s="52"/>
-      <c r="G282" s="52"/>
+      <c r="E282" s="61"/>
+      <c r="F282" s="61"/>
+      <c r="G282" s="61"/>
       <c r="H282" s="26"/>
     </row>
     <row r="283" spans="1:8">
@@ -7954,9 +7906,9 @@
       <c r="B283" s="51"/>
       <c r="C283" s="52"/>
       <c r="D283" s="53"/>
-      <c r="E283" s="62"/>
-      <c r="F283" s="62"/>
-      <c r="G283" s="62"/>
+      <c r="E283" s="61"/>
+      <c r="F283" s="61"/>
+      <c r="G283" s="61"/>
       <c r="H283" s="26"/>
     </row>
     <row r="284" spans="1:8">
@@ -7964,9 +7916,9 @@
       <c r="B284" s="51"/>
       <c r="C284" s="52"/>
       <c r="D284" s="53"/>
-      <c r="E284" s="62"/>
-      <c r="F284" s="62"/>
-      <c r="G284" s="62"/>
+      <c r="E284" s="61"/>
+      <c r="F284" s="61"/>
+      <c r="G284" s="61"/>
       <c r="H284" s="26"/>
     </row>
     <row r="285" spans="1:8">
@@ -7974,9 +7926,9 @@
       <c r="B285" s="51"/>
       <c r="C285" s="52"/>
       <c r="D285" s="53"/>
-      <c r="E285" s="62"/>
-      <c r="F285" s="62"/>
-      <c r="G285" s="62"/>
+      <c r="E285" s="61"/>
+      <c r="F285" s="61"/>
+      <c r="G285" s="61"/>
       <c r="H285" s="26"/>
     </row>
     <row r="286" spans="1:8">
@@ -7984,9 +7936,9 @@
       <c r="B286" s="51"/>
       <c r="C286" s="52"/>
       <c r="D286" s="53"/>
-      <c r="E286" s="62"/>
-      <c r="F286" s="62"/>
-      <c r="G286" s="62"/>
+      <c r="E286" s="61"/>
+      <c r="F286" s="61"/>
+      <c r="G286" s="61"/>
       <c r="H286" s="26"/>
     </row>
     <row r="287" spans="1:8">
@@ -7994,9 +7946,9 @@
       <c r="B287" s="51"/>
       <c r="C287" s="52"/>
       <c r="D287" s="53"/>
-      <c r="E287" s="62"/>
-      <c r="F287" s="62"/>
-      <c r="G287" s="62"/>
+      <c r="E287" s="61"/>
+      <c r="F287" s="61"/>
+      <c r="G287" s="61"/>
       <c r="H287" s="26"/>
     </row>
     <row r="288" spans="1:8">
@@ -8004,9 +7956,9 @@
       <c r="B288" s="51"/>
       <c r="C288" s="52"/>
       <c r="D288" s="53"/>
-      <c r="E288" s="62"/>
-      <c r="F288" s="62"/>
-      <c r="G288" s="62"/>
+      <c r="E288" s="61"/>
+      <c r="F288" s="61"/>
+      <c r="G288" s="61"/>
       <c r="H288" s="26"/>
     </row>
     <row r="289" spans="1:8">
@@ -8014,9 +7966,9 @@
       <c r="B289" s="51"/>
       <c r="C289" s="52"/>
       <c r="D289" s="53"/>
-      <c r="E289" s="62"/>
-      <c r="F289" s="62"/>
-      <c r="G289" s="62"/>
+      <c r="E289" s="61"/>
+      <c r="F289" s="61"/>
+      <c r="G289" s="61"/>
       <c r="H289" s="26"/>
     </row>
     <row r="290" spans="1:8">
@@ -8024,9 +7976,9 @@
       <c r="B290" s="51"/>
       <c r="C290" s="52"/>
       <c r="D290" s="53"/>
-      <c r="E290" s="62"/>
-      <c r="F290" s="62"/>
-      <c r="G290" s="62"/>
+      <c r="E290" s="61"/>
+      <c r="F290" s="61"/>
+      <c r="G290" s="61"/>
       <c r="H290" s="26"/>
     </row>
     <row r="291" spans="1:8">
@@ -8034,9 +7986,9 @@
       <c r="B291" s="51"/>
       <c r="C291" s="52"/>
       <c r="D291" s="53"/>
-      <c r="E291" s="62"/>
-      <c r="F291" s="62"/>
-      <c r="G291" s="62"/>
+      <c r="E291" s="61"/>
+      <c r="F291" s="61"/>
+      <c r="G291" s="61"/>
       <c r="H291" s="26"/>
     </row>
     <row r="292" spans="1:8">
@@ -8044,9 +7996,9 @@
       <c r="B292" s="51"/>
       <c r="C292" s="52"/>
       <c r="D292" s="53"/>
-      <c r="E292" s="62"/>
-      <c r="F292" s="62"/>
-      <c r="G292" s="62"/>
+      <c r="E292" s="61"/>
+      <c r="F292" s="61"/>
+      <c r="G292" s="61"/>
       <c r="H292" s="26"/>
     </row>
     <row r="293" spans="1:8">
@@ -8054,9 +8006,9 @@
       <c r="B293" s="51"/>
       <c r="C293" s="52"/>
       <c r="D293" s="53"/>
-      <c r="E293" s="62"/>
-      <c r="F293" s="62"/>
-      <c r="G293" s="62"/>
+      <c r="E293" s="61"/>
+      <c r="F293" s="61"/>
+      <c r="G293" s="61"/>
       <c r="H293" s="26"/>
     </row>
     <row r="294" spans="1:8">
@@ -8064,9 +8016,9 @@
       <c r="B294" s="51"/>
       <c r="C294" s="52"/>
       <c r="D294" s="53"/>
-      <c r="E294" s="62"/>
-      <c r="F294" s="62"/>
-      <c r="G294" s="62"/>
+      <c r="E294" s="61"/>
+      <c r="F294" s="61"/>
+      <c r="G294" s="61"/>
       <c r="H294" s="26"/>
     </row>
     <row r="295" spans="1:8">
@@ -8074,9 +8026,9 @@
       <c r="B295" s="51"/>
       <c r="C295" s="52"/>
       <c r="D295" s="53"/>
-      <c r="E295" s="62"/>
-      <c r="F295" s="62"/>
-      <c r="G295" s="62"/>
+      <c r="E295" s="61"/>
+      <c r="F295" s="61"/>
+      <c r="G295" s="61"/>
       <c r="H295" s="26"/>
     </row>
     <row r="296" spans="1:8">
@@ -8084,9 +8036,9 @@
       <c r="B296" s="51"/>
       <c r="C296" s="52"/>
       <c r="D296" s="53"/>
-      <c r="E296" s="62"/>
-      <c r="F296" s="62"/>
-      <c r="G296" s="62"/>
+      <c r="E296" s="61"/>
+      <c r="F296" s="61"/>
+      <c r="G296" s="61"/>
       <c r="H296" s="26"/>
     </row>
     <row r="297" spans="1:8">
@@ -8094,9 +8046,9 @@
       <c r="B297" s="51"/>
       <c r="C297" s="52"/>
       <c r="D297" s="53"/>
-      <c r="E297" s="62"/>
-      <c r="F297" s="62"/>
-      <c r="G297" s="62"/>
+      <c r="E297" s="61"/>
+      <c r="F297" s="61"/>
+      <c r="G297" s="61"/>
       <c r="H297" s="26"/>
     </row>
     <row r="298" spans="1:8">
@@ -8104,9 +8056,9 @@
       <c r="B298" s="51"/>
       <c r="C298" s="52"/>
       <c r="D298" s="53"/>
-      <c r="E298" s="62"/>
-      <c r="F298" s="62"/>
-      <c r="G298" s="62"/>
+      <c r="E298" s="61"/>
+      <c r="F298" s="61"/>
+      <c r="G298" s="61"/>
       <c r="H298" s="26"/>
     </row>
     <row r="299" spans="1:8">
@@ -8114,9 +8066,9 @@
       <c r="B299" s="51"/>
       <c r="C299" s="52"/>
       <c r="D299" s="53"/>
-      <c r="E299" s="62"/>
-      <c r="F299" s="62"/>
-      <c r="G299" s="62"/>
+      <c r="E299" s="61"/>
+      <c r="F299" s="61"/>
+      <c r="G299" s="61"/>
       <c r="H299" s="26"/>
     </row>
     <row r="300" spans="1:8">
@@ -8124,9 +8076,9 @@
       <c r="B300" s="51"/>
       <c r="C300" s="52"/>
       <c r="D300" s="53"/>
-      <c r="E300" s="62"/>
-      <c r="F300" s="62"/>
-      <c r="G300" s="62"/>
+      <c r="E300" s="61"/>
+      <c r="F300" s="61"/>
+      <c r="G300" s="61"/>
       <c r="H300" s="26"/>
     </row>
     <row r="301" spans="1:8">
@@ -8134,9 +8086,9 @@
       <c r="B301" s="51"/>
       <c r="C301" s="52"/>
       <c r="D301" s="53"/>
-      <c r="E301" s="62"/>
-      <c r="F301" s="62"/>
-      <c r="G301" s="62"/>
+      <c r="E301" s="61"/>
+      <c r="F301" s="61"/>
+      <c r="G301" s="61"/>
       <c r="H301" s="26"/>
     </row>
     <row r="302" spans="1:8">
@@ -8144,9 +8096,9 @@
       <c r="B302" s="51"/>
       <c r="C302" s="52"/>
       <c r="D302" s="53"/>
-      <c r="E302" s="62"/>
-      <c r="F302" s="62"/>
-      <c r="G302" s="62"/>
+      <c r="E302" s="61"/>
+      <c r="F302" s="61"/>
+      <c r="G302" s="61"/>
       <c r="H302" s="26"/>
     </row>
     <row r="303" spans="1:8">
@@ -8154,9 +8106,9 @@
       <c r="B303" s="51"/>
       <c r="C303" s="52"/>
       <c r="D303" s="53"/>
-      <c r="E303" s="62"/>
-      <c r="F303" s="62"/>
-      <c r="G303" s="62"/>
+      <c r="E303" s="61"/>
+      <c r="F303" s="61"/>
+      <c r="G303" s="61"/>
       <c r="H303" s="26"/>
     </row>
     <row r="304" spans="1:8">
@@ -8164,9 +8116,9 @@
       <c r="B304" s="51"/>
       <c r="C304" s="52"/>
       <c r="D304" s="53"/>
-      <c r="E304" s="62"/>
-      <c r="F304" s="62"/>
-      <c r="G304" s="62"/>
+      <c r="E304" s="61"/>
+      <c r="F304" s="61"/>
+      <c r="G304" s="61"/>
       <c r="H304" s="26"/>
     </row>
     <row r="305" spans="1:8">
@@ -8174,9 +8126,9 @@
       <c r="B305" s="51"/>
       <c r="C305" s="52"/>
       <c r="D305" s="53"/>
-      <c r="E305" s="62"/>
-      <c r="F305" s="62"/>
-      <c r="G305" s="62"/>
+      <c r="E305" s="61"/>
+      <c r="F305" s="61"/>
+      <c r="G305" s="61"/>
       <c r="H305" s="26"/>
     </row>
     <row r="306" spans="1:8">
@@ -8184,9 +8136,9 @@
       <c r="B306" s="51"/>
       <c r="C306" s="52"/>
       <c r="D306" s="53"/>
-      <c r="E306" s="62"/>
-      <c r="F306" s="62"/>
-      <c r="G306" s="62"/>
+      <c r="E306" s="61"/>
+      <c r="F306" s="61"/>
+      <c r="G306" s="61"/>
       <c r="H306" s="26"/>
     </row>
     <row r="307" spans="1:8">
@@ -8194,9 +8146,9 @@
       <c r="B307" s="51"/>
       <c r="C307" s="52"/>
       <c r="D307" s="53"/>
-      <c r="E307" s="62"/>
-      <c r="F307" s="62"/>
-      <c r="G307" s="62"/>
+      <c r="E307" s="61"/>
+      <c r="F307" s="61"/>
+      <c r="G307" s="61"/>
       <c r="H307" s="26"/>
     </row>
     <row r="308" spans="1:8">
@@ -8204,9 +8156,9 @@
       <c r="B308" s="51"/>
       <c r="C308" s="52"/>
       <c r="D308" s="53"/>
-      <c r="E308" s="62"/>
-      <c r="F308" s="62"/>
-      <c r="G308" s="62"/>
+      <c r="E308" s="61"/>
+      <c r="F308" s="61"/>
+      <c r="G308" s="61"/>
       <c r="H308" s="26"/>
     </row>
     <row r="309" spans="1:8">
@@ -8214,9 +8166,9 @@
       <c r="B309" s="51"/>
       <c r="C309" s="52"/>
       <c r="D309" s="53"/>
-      <c r="E309" s="62"/>
-      <c r="F309" s="62"/>
-      <c r="G309" s="62"/>
+      <c r="E309" s="61"/>
+      <c r="F309" s="61"/>
+      <c r="G309" s="61"/>
       <c r="H309" s="26"/>
     </row>
     <row r="310" spans="1:8">
@@ -8224,9 +8176,9 @@
       <c r="B310" s="51"/>
       <c r="C310" s="52"/>
       <c r="D310" s="53"/>
-      <c r="E310" s="62"/>
-      <c r="F310" s="62"/>
-      <c r="G310" s="62"/>
+      <c r="E310" s="61"/>
+      <c r="F310" s="61"/>
+      <c r="G310" s="61"/>
       <c r="H310" s="26"/>
     </row>
     <row r="311" spans="1:8">
@@ -8234,9 +8186,9 @@
       <c r="B311" s="51"/>
       <c r="C311" s="52"/>
       <c r="D311" s="53"/>
-      <c r="E311" s="62"/>
-      <c r="F311" s="62"/>
-      <c r="G311" s="62"/>
+      <c r="E311" s="61"/>
+      <c r="F311" s="61"/>
+      <c r="G311" s="61"/>
       <c r="H311" s="26"/>
     </row>
     <row r="312" spans="1:8">
@@ -8244,9 +8196,9 @@
       <c r="B312" s="51"/>
       <c r="C312" s="52"/>
       <c r="D312" s="53"/>
-      <c r="E312" s="62"/>
-      <c r="F312" s="62"/>
-      <c r="G312" s="62"/>
+      <c r="E312" s="61"/>
+      <c r="F312" s="61"/>
+      <c r="G312" s="61"/>
       <c r="H312" s="26"/>
     </row>
     <row r="313" spans="1:8">
@@ -8254,9 +8206,9 @@
       <c r="B313" s="51"/>
       <c r="C313" s="52"/>
       <c r="D313" s="53"/>
-      <c r="E313" s="62"/>
-      <c r="F313" s="62"/>
-      <c r="G313" s="62"/>
+      <c r="E313" s="61"/>
+      <c r="F313" s="61"/>
+      <c r="G313" s="61"/>
       <c r="H313" s="26"/>
     </row>
     <row r="314" spans="1:8">
@@ -8264,9 +8216,9 @@
       <c r="B314" s="51"/>
       <c r="C314" s="52"/>
       <c r="D314" s="53"/>
-      <c r="E314" s="62"/>
-      <c r="F314" s="62"/>
-      <c r="G314" s="62"/>
+      <c r="E314" s="61"/>
+      <c r="F314" s="61"/>
+      <c r="G314" s="61"/>
       <c r="H314" s="26"/>
     </row>
     <row r="315" spans="1:8">
@@ -8274,9 +8226,9 @@
       <c r="B315" s="51"/>
       <c r="C315" s="52"/>
       <c r="D315" s="53"/>
-      <c r="E315" s="62"/>
-      <c r="F315" s="62"/>
-      <c r="G315" s="62"/>
+      <c r="E315" s="61"/>
+      <c r="F315" s="61"/>
+      <c r="G315" s="61"/>
       <c r="H315" s="26"/>
     </row>
     <row r="316" spans="1:8">
@@ -8284,9 +8236,9 @@
       <c r="B316" s="51"/>
       <c r="C316" s="52"/>
       <c r="D316" s="53"/>
-      <c r="E316" s="62"/>
-      <c r="F316" s="62"/>
-      <c r="G316" s="62"/>
+      <c r="E316" s="61"/>
+      <c r="F316" s="61"/>
+      <c r="G316" s="61"/>
       <c r="H316" s="26"/>
     </row>
     <row r="317" spans="1:8">
@@ -8294,9 +8246,9 @@
       <c r="B317" s="51"/>
       <c r="C317" s="52"/>
       <c r="D317" s="53"/>
-      <c r="E317" s="62"/>
-      <c r="F317" s="62"/>
-      <c r="G317" s="62"/>
+      <c r="E317" s="61"/>
+      <c r="F317" s="61"/>
+      <c r="G317" s="61"/>
       <c r="H317" s="26"/>
     </row>
     <row r="318" spans="1:8">
@@ -8304,9 +8256,9 @@
       <c r="B318" s="51"/>
       <c r="C318" s="52"/>
       <c r="D318" s="53"/>
-      <c r="E318" s="62"/>
-      <c r="F318" s="62"/>
-      <c r="G318" s="62"/>
+      <c r="E318" s="61"/>
+      <c r="F318" s="61"/>
+      <c r="G318" s="61"/>
       <c r="H318" s="26"/>
     </row>
     <row r="319" spans="1:8">
@@ -8314,9 +8266,9 @@
       <c r="B319" s="51"/>
       <c r="C319" s="52"/>
       <c r="D319" s="53"/>
-      <c r="E319" s="62"/>
-      <c r="F319" s="62"/>
-      <c r="G319" s="62"/>
+      <c r="E319" s="61"/>
+      <c r="F319" s="61"/>
+      <c r="G319" s="61"/>
       <c r="H319" s="26"/>
     </row>
     <row r="320" spans="1:8">
@@ -8324,9 +8276,9 @@
       <c r="B320" s="51"/>
       <c r="C320" s="52"/>
       <c r="D320" s="53"/>
-      <c r="E320" s="62"/>
-      <c r="F320" s="62"/>
-      <c r="G320" s="62"/>
+      <c r="E320" s="61"/>
+      <c r="F320" s="61"/>
+      <c r="G320" s="61"/>
       <c r="H320" s="26"/>
     </row>
     <row r="321" spans="1:8">
@@ -8334,9 +8286,9 @@
       <c r="B321" s="51"/>
       <c r="C321" s="52"/>
       <c r="D321" s="53"/>
-      <c r="E321" s="62"/>
-      <c r="F321" s="62"/>
-      <c r="G321" s="62"/>
+      <c r="E321" s="61"/>
+      <c r="F321" s="61"/>
+      <c r="G321" s="61"/>
       <c r="H321" s="26"/>
     </row>
     <row r="322" spans="1:8">
@@ -8344,9 +8296,9 @@
       <c r="B322" s="51"/>
       <c r="C322" s="52"/>
       <c r="D322" s="53"/>
-      <c r="E322" s="62"/>
-      <c r="F322" s="62"/>
-      <c r="G322" s="62"/>
+      <c r="E322" s="61"/>
+      <c r="F322" s="61"/>
+      <c r="G322" s="61"/>
       <c r="H322" s="26"/>
     </row>
     <row r="323" spans="1:8">
@@ -8354,9 +8306,9 @@
       <c r="B323" s="51"/>
       <c r="C323" s="52"/>
       <c r="D323" s="53"/>
-      <c r="E323" s="62"/>
-      <c r="F323" s="62"/>
-      <c r="G323" s="62"/>
+      <c r="E323" s="61"/>
+      <c r="F323" s="61"/>
+      <c r="G323" s="61"/>
       <c r="H323" s="26"/>
     </row>
     <row r="324" spans="1:8">
@@ -8364,9 +8316,9 @@
       <c r="B324" s="51"/>
       <c r="C324" s="52"/>
       <c r="D324" s="53"/>
-      <c r="E324" s="62"/>
-      <c r="F324" s="62"/>
-      <c r="G324" s="62"/>
+      <c r="E324" s="61"/>
+      <c r="F324" s="61"/>
+      <c r="G324" s="61"/>
       <c r="H324" s="26"/>
     </row>
     <row r="325" spans="1:8">
@@ -8374,9 +8326,9 @@
       <c r="B325" s="51"/>
       <c r="C325" s="52"/>
       <c r="D325" s="53"/>
-      <c r="E325" s="62"/>
-      <c r="F325" s="62"/>
-      <c r="G325" s="62"/>
+      <c r="E325" s="61"/>
+      <c r="F325" s="61"/>
+      <c r="G325" s="61"/>
       <c r="H325" s="26"/>
     </row>
     <row r="326" spans="1:8">
@@ -8384,9 +8336,9 @@
       <c r="B326" s="51"/>
       <c r="C326" s="52"/>
       <c r="D326" s="53"/>
-      <c r="E326" s="62"/>
-      <c r="F326" s="62"/>
-      <c r="G326" s="62"/>
+      <c r="E326" s="61"/>
+      <c r="F326" s="61"/>
+      <c r="G326" s="61"/>
       <c r="H326" s="26"/>
     </row>
     <row r="327" spans="1:8">
@@ -8394,9 +8346,9 @@
       <c r="B327" s="51"/>
       <c r="C327" s="52"/>
       <c r="D327" s="53"/>
-      <c r="E327" s="62"/>
-      <c r="F327" s="62"/>
-      <c r="G327" s="62"/>
+      <c r="E327" s="61"/>
+      <c r="F327" s="61"/>
+      <c r="G327" s="61"/>
       <c r="H327" s="26"/>
     </row>
     <row r="328" spans="1:8">
@@ -8404,9 +8356,9 @@
       <c r="B328" s="51"/>
       <c r="C328" s="52"/>
       <c r="D328" s="53"/>
-      <c r="E328" s="62"/>
-      <c r="F328" s="62"/>
-      <c r="G328" s="62"/>
+      <c r="E328" s="61"/>
+      <c r="F328" s="61"/>
+      <c r="G328" s="61"/>
       <c r="H328" s="26"/>
     </row>
     <row r="329" spans="1:8">
@@ -8414,9 +8366,9 @@
       <c r="B329" s="51"/>
       <c r="C329" s="52"/>
       <c r="D329" s="53"/>
-      <c r="E329" s="62"/>
-      <c r="F329" s="62"/>
-      <c r="G329" s="62"/>
+      <c r="E329" s="61"/>
+      <c r="F329" s="61"/>
+      <c r="G329" s="61"/>
       <c r="H329" s="26"/>
     </row>
     <row r="330" spans="1:8">
@@ -8424,275 +8376,275 @@
       <c r="B330" s="51"/>
       <c r="C330" s="52"/>
       <c r="D330" s="53"/>
-      <c r="E330" s="62"/>
-      <c r="F330" s="62"/>
-      <c r="G330" s="62"/>
+      <c r="E330" s="61"/>
+      <c r="F330" s="61"/>
+      <c r="G330" s="61"/>
       <c r="H330" s="26"/>
     </row>
     <row r="331" spans="1:8">
-      <c r="A331" s="51"/>
-      <c r="B331" s="51"/>
-      <c r="C331" s="52"/>
-      <c r="D331" s="53"/>
-      <c r="E331" s="62"/>
-      <c r="F331" s="62"/>
-      <c r="G331" s="62"/>
+      <c r="A331" s="63"/>
+      <c r="B331" s="63"/>
+      <c r="C331" s="64"/>
+      <c r="D331" s="65"/>
+      <c r="E331" s="67"/>
+      <c r="F331" s="67"/>
+      <c r="G331" s="67"/>
       <c r="H331" s="26"/>
     </row>
     <row r="332" spans="1:8">
-      <c r="A332" s="51"/>
-      <c r="B332" s="51"/>
-      <c r="C332" s="52"/>
-      <c r="D332" s="53"/>
-      <c r="E332" s="62"/>
-      <c r="F332" s="62"/>
-      <c r="G332" s="62"/>
+      <c r="A332" s="63"/>
+      <c r="B332" s="63"/>
+      <c r="C332" s="64"/>
+      <c r="D332" s="66"/>
+      <c r="E332" s="67"/>
+      <c r="F332" s="67"/>
+      <c r="G332" s="67"/>
       <c r="H332" s="26"/>
     </row>
     <row r="333" spans="1:8">
-      <c r="A333" s="64"/>
-      <c r="B333" s="64"/>
-      <c r="C333" s="65"/>
+      <c r="A333" s="63"/>
+      <c r="B333" s="63"/>
+      <c r="C333" s="64"/>
       <c r="D333" s="66"/>
-      <c r="E333" s="68"/>
-      <c r="F333" s="68"/>
-      <c r="G333" s="68"/>
+      <c r="E333" s="67"/>
+      <c r="F333" s="67"/>
+      <c r="G333" s="67"/>
       <c r="H333" s="26"/>
     </row>
     <row r="334" spans="1:8">
-      <c r="A334" s="64"/>
-      <c r="B334" s="64"/>
-      <c r="C334" s="65"/>
-      <c r="D334" s="67"/>
-      <c r="E334" s="68"/>
-      <c r="F334" s="68"/>
-      <c r="G334" s="68"/>
+      <c r="A334" s="63"/>
+      <c r="B334" s="63"/>
+      <c r="C334" s="64"/>
+      <c r="D334" s="66"/>
+      <c r="E334" s="67"/>
+      <c r="F334" s="67"/>
+      <c r="G334" s="67"/>
       <c r="H334" s="26"/>
     </row>
     <row r="335" spans="1:8">
-      <c r="A335" s="64"/>
-      <c r="B335" s="64"/>
-      <c r="C335" s="65"/>
-      <c r="D335" s="67"/>
-      <c r="E335" s="68"/>
-      <c r="F335" s="68"/>
-      <c r="G335" s="68"/>
+      <c r="A335" s="63"/>
+      <c r="B335" s="63"/>
+      <c r="C335" s="64"/>
+      <c r="D335" s="66"/>
+      <c r="E335" s="67"/>
+      <c r="F335" s="67"/>
+      <c r="G335" s="67"/>
       <c r="H335" s="26"/>
     </row>
     <row r="336" spans="1:8">
-      <c r="A336" s="64"/>
-      <c r="B336" s="64"/>
-      <c r="C336" s="65"/>
-      <c r="D336" s="67"/>
-      <c r="E336" s="68"/>
-      <c r="F336" s="68"/>
-      <c r="G336" s="68"/>
+      <c r="A336" s="63"/>
+      <c r="B336" s="63"/>
+      <c r="C336" s="64"/>
+      <c r="D336" s="65"/>
+      <c r="E336" s="67"/>
+      <c r="F336" s="67"/>
+      <c r="G336" s="67"/>
       <c r="H336" s="26"/>
     </row>
     <row r="337" spans="1:8">
-      <c r="A337" s="64"/>
-      <c r="B337" s="64"/>
-      <c r="C337" s="65"/>
-      <c r="D337" s="67"/>
-      <c r="E337" s="68"/>
-      <c r="F337" s="68"/>
-      <c r="G337" s="68"/>
+      <c r="A337" s="63"/>
+      <c r="B337" s="63"/>
+      <c r="C337" s="64"/>
+      <c r="D337" s="65"/>
+      <c r="E337" s="67"/>
+      <c r="F337" s="67"/>
+      <c r="G337" s="67"/>
       <c r="H337" s="26"/>
     </row>
     <row r="338" spans="1:8">
-      <c r="A338" s="64"/>
-      <c r="B338" s="64"/>
-      <c r="C338" s="65"/>
-      <c r="D338" s="66"/>
-      <c r="E338" s="68"/>
-      <c r="F338" s="68"/>
-      <c r="G338" s="68"/>
+      <c r="A338" s="63"/>
+      <c r="B338" s="63"/>
+      <c r="C338" s="64"/>
+      <c r="D338" s="65"/>
+      <c r="E338" s="67"/>
+      <c r="F338" s="67"/>
+      <c r="G338" s="67"/>
       <c r="H338" s="26"/>
     </row>
     <row r="339" spans="1:8">
-      <c r="A339" s="64"/>
-      <c r="B339" s="64"/>
-      <c r="C339" s="65"/>
+      <c r="A339" s="63"/>
+      <c r="B339" s="63"/>
+      <c r="C339" s="64"/>
       <c r="D339" s="66"/>
-      <c r="E339" s="68"/>
-      <c r="F339" s="68"/>
-      <c r="G339" s="68"/>
+      <c r="E339" s="67"/>
+      <c r="F339" s="67"/>
+      <c r="G339" s="67"/>
       <c r="H339" s="26"/>
     </row>
     <row r="340" spans="1:8">
-      <c r="A340" s="64"/>
-      <c r="B340" s="64"/>
-      <c r="C340" s="65"/>
-      <c r="D340" s="66"/>
-      <c r="E340" s="68"/>
-      <c r="F340" s="68"/>
-      <c r="G340" s="68"/>
+      <c r="A340" s="63"/>
+      <c r="B340" s="63"/>
+      <c r="C340" s="64"/>
+      <c r="D340" s="65"/>
+      <c r="E340" s="67"/>
+      <c r="F340" s="67"/>
+      <c r="G340" s="67"/>
       <c r="H340" s="26"/>
     </row>
     <row r="341" spans="1:8">
-      <c r="A341" s="64"/>
-      <c r="B341" s="64"/>
-      <c r="C341" s="65"/>
-      <c r="D341" s="67"/>
-      <c r="E341" s="68"/>
-      <c r="F341" s="68"/>
-      <c r="G341" s="68"/>
+      <c r="A341" s="63"/>
+      <c r="B341" s="63"/>
+      <c r="C341" s="64"/>
+      <c r="D341" s="65"/>
+      <c r="E341" s="67"/>
+      <c r="F341" s="67"/>
+      <c r="G341" s="67"/>
       <c r="H341" s="26"/>
     </row>
     <row r="342" spans="1:8">
-      <c r="A342" s="64"/>
-      <c r="B342" s="64"/>
-      <c r="C342" s="65"/>
+      <c r="A342" s="63"/>
+      <c r="B342" s="63"/>
+      <c r="C342" s="64"/>
       <c r="D342" s="66"/>
-      <c r="E342" s="68"/>
-      <c r="F342" s="68"/>
-      <c r="G342" s="68"/>
+      <c r="E342" s="67"/>
+      <c r="F342" s="67"/>
+      <c r="G342" s="67"/>
       <c r="H342" s="26"/>
     </row>
     <row r="343" spans="1:8">
-      <c r="A343" s="64"/>
-      <c r="B343" s="64"/>
-      <c r="C343" s="65"/>
+      <c r="A343" s="63"/>
+      <c r="B343" s="63"/>
+      <c r="C343" s="64"/>
       <c r="D343" s="66"/>
-      <c r="E343" s="68"/>
-      <c r="F343" s="68"/>
-      <c r="G343" s="68"/>
+      <c r="E343" s="67"/>
+      <c r="F343" s="67"/>
+      <c r="G343" s="67"/>
       <c r="H343" s="26"/>
     </row>
     <row r="344" spans="1:8">
-      <c r="A344" s="64"/>
-      <c r="B344" s="64"/>
-      <c r="C344" s="65"/>
-      <c r="D344" s="67"/>
-      <c r="E344" s="68"/>
-      <c r="F344" s="68"/>
-      <c r="G344" s="68"/>
+      <c r="A344" s="63"/>
+      <c r="B344" s="63"/>
+      <c r="C344" s="64"/>
+      <c r="D344" s="66"/>
+      <c r="E344" s="67"/>
+      <c r="F344" s="67"/>
+      <c r="G344" s="67"/>
       <c r="H344" s="26"/>
     </row>
     <row r="345" spans="1:8">
-      <c r="A345" s="64"/>
-      <c r="B345" s="64"/>
-      <c r="C345" s="65"/>
-      <c r="D345" s="67"/>
-      <c r="E345" s="68"/>
-      <c r="F345" s="68"/>
-      <c r="G345" s="68"/>
+      <c r="A345" s="63"/>
+      <c r="B345" s="63"/>
+      <c r="C345" s="64"/>
+      <c r="D345" s="66"/>
+      <c r="E345" s="67"/>
+      <c r="F345" s="67"/>
+      <c r="G345" s="67"/>
       <c r="H345" s="26"/>
     </row>
     <row r="346" spans="1:8">
-      <c r="A346" s="64"/>
-      <c r="B346" s="64"/>
-      <c r="C346" s="65"/>
-      <c r="D346" s="67"/>
-      <c r="E346" s="68"/>
-      <c r="F346" s="68"/>
-      <c r="G346" s="68"/>
+      <c r="A346" s="63"/>
+      <c r="B346" s="63"/>
+      <c r="C346" s="64"/>
+      <c r="D346" s="66"/>
+      <c r="E346" s="67"/>
+      <c r="F346" s="67"/>
+      <c r="G346" s="67"/>
       <c r="H346" s="26"/>
     </row>
     <row r="347" spans="1:8">
-      <c r="A347" s="64"/>
-      <c r="B347" s="64"/>
-      <c r="C347" s="65"/>
-      <c r="D347" s="67"/>
-      <c r="E347" s="68"/>
-      <c r="F347" s="68"/>
-      <c r="G347" s="68"/>
+      <c r="A347" s="63"/>
+      <c r="B347" s="63"/>
+      <c r="C347" s="64"/>
+      <c r="D347" s="65"/>
+      <c r="E347" s="67"/>
+      <c r="F347" s="67"/>
+      <c r="G347" s="67"/>
       <c r="H347" s="26"/>
     </row>
     <row r="348" spans="1:8">
-      <c r="A348" s="64"/>
-      <c r="B348" s="64"/>
-      <c r="C348" s="65"/>
-      <c r="D348" s="67"/>
-      <c r="E348" s="68"/>
-      <c r="F348" s="68"/>
-      <c r="G348" s="68"/>
+      <c r="A348" s="63"/>
+      <c r="B348" s="63"/>
+      <c r="C348" s="64"/>
+      <c r="D348" s="65"/>
+      <c r="E348" s="67"/>
+      <c r="F348" s="67"/>
+      <c r="G348" s="67"/>
       <c r="H348" s="26"/>
     </row>
     <row r="349" spans="1:8">
-      <c r="A349" s="64"/>
-      <c r="B349" s="64"/>
-      <c r="C349" s="65"/>
+      <c r="A349" s="63"/>
+      <c r="B349" s="63"/>
+      <c r="C349" s="64"/>
       <c r="D349" s="66"/>
-      <c r="E349" s="68"/>
-      <c r="F349" s="68"/>
-      <c r="G349" s="68"/>
+      <c r="E349" s="67"/>
+      <c r="F349" s="67"/>
+      <c r="G349" s="67"/>
       <c r="H349" s="26"/>
     </row>
     <row r="350" spans="1:8">
-      <c r="A350" s="64"/>
-      <c r="B350" s="64"/>
-      <c r="C350" s="65"/>
+      <c r="A350" s="63"/>
+      <c r="B350" s="63"/>
+      <c r="C350" s="64"/>
       <c r="D350" s="66"/>
-      <c r="E350" s="68"/>
-      <c r="F350" s="68"/>
-      <c r="G350" s="68"/>
+      <c r="E350" s="67"/>
+      <c r="F350" s="67"/>
+      <c r="G350" s="67"/>
       <c r="H350" s="26"/>
     </row>
     <row r="351" spans="1:8">
-      <c r="A351" s="64"/>
-      <c r="B351" s="64"/>
-      <c r="C351" s="65"/>
-      <c r="D351" s="67"/>
-      <c r="E351" s="68"/>
-      <c r="F351" s="68"/>
-      <c r="G351" s="68"/>
+      <c r="A351" s="63"/>
+      <c r="B351" s="63"/>
+      <c r="C351" s="64"/>
+      <c r="D351" s="66"/>
+      <c r="E351" s="67"/>
+      <c r="F351" s="67"/>
+      <c r="G351" s="67"/>
       <c r="H351" s="26"/>
     </row>
     <row r="352" spans="1:8">
-      <c r="A352" s="64"/>
-      <c r="B352" s="64"/>
-      <c r="C352" s="65"/>
-      <c r="D352" s="67"/>
-      <c r="E352" s="68"/>
-      <c r="F352" s="68"/>
-      <c r="G352" s="68"/>
+      <c r="A352" s="63"/>
+      <c r="B352" s="63"/>
+      <c r="C352" s="64"/>
+      <c r="D352" s="66"/>
+      <c r="E352" s="67"/>
+      <c r="F352" s="67"/>
+      <c r="G352" s="67"/>
       <c r="H352" s="26"/>
     </row>
     <row r="353" spans="1:8">
-      <c r="A353" s="64"/>
-      <c r="B353" s="64"/>
-      <c r="C353" s="65"/>
-      <c r="D353" s="67"/>
-      <c r="E353" s="68"/>
-      <c r="F353" s="68"/>
-      <c r="G353" s="68"/>
+      <c r="A353" s="63"/>
+      <c r="B353" s="63"/>
+      <c r="C353" s="64"/>
+      <c r="D353" s="66"/>
+      <c r="E353" s="67"/>
+      <c r="F353" s="67"/>
+      <c r="G353" s="67"/>
       <c r="H353" s="26"/>
     </row>
     <row r="354" spans="1:8">
-      <c r="A354" s="64"/>
-      <c r="B354" s="64"/>
-      <c r="C354" s="65"/>
-      <c r="D354" s="67"/>
-      <c r="E354" s="68"/>
-      <c r="F354" s="68"/>
-      <c r="G354" s="68"/>
+      <c r="A354" s="63"/>
+      <c r="B354" s="63"/>
+      <c r="C354" s="64"/>
+      <c r="D354" s="66"/>
+      <c r="E354" s="67"/>
+      <c r="F354" s="67"/>
+      <c r="G354" s="67"/>
       <c r="H354" s="26"/>
     </row>
     <row r="355" spans="1:8">
-      <c r="A355" s="64"/>
-      <c r="B355" s="64"/>
-      <c r="C355" s="65"/>
-      <c r="D355" s="67"/>
-      <c r="E355" s="68"/>
-      <c r="F355" s="68"/>
-      <c r="G355" s="68"/>
+      <c r="A355" s="63"/>
+      <c r="B355" s="63"/>
+      <c r="C355" s="64"/>
+      <c r="D355" s="65"/>
+      <c r="E355" s="67"/>
+      <c r="F355" s="67"/>
+      <c r="G355" s="67"/>
       <c r="H355" s="26"/>
     </row>
     <row r="356" spans="1:8">
-      <c r="A356" s="64"/>
-      <c r="B356" s="64"/>
-      <c r="C356" s="65"/>
-      <c r="D356" s="67"/>
-      <c r="E356" s="68"/>
-      <c r="F356" s="68"/>
-      <c r="G356" s="68"/>
+      <c r="A356" s="63"/>
+      <c r="B356" s="63"/>
+      <c r="C356" s="64"/>
+      <c r="D356" s="66"/>
+      <c r="E356" s="67"/>
+      <c r="F356" s="67"/>
+      <c r="G356" s="67"/>
       <c r="H356" s="26"/>
     </row>
     <row r="357" spans="1:8">
-      <c r="A357" s="64"/>
-      <c r="B357" s="64"/>
-      <c r="C357" s="65"/>
+      <c r="A357" s="63"/>
+      <c r="B357" s="63"/>
+      <c r="C357" s="64"/>
       <c r="D357" s="66"/>
       <c r="E357" s="68"/>
       <c r="F357" s="68"/>
@@ -8700,104 +8652,84 @@
       <c r="H357" s="26"/>
     </row>
     <row r="358" spans="1:8">
-      <c r="A358" s="64"/>
-      <c r="B358" s="64"/>
-      <c r="C358" s="65"/>
-      <c r="D358" s="67"/>
+      <c r="A358" s="63"/>
+      <c r="B358" s="63"/>
+      <c r="C358" s="64"/>
+      <c r="D358" s="66"/>
       <c r="E358" s="68"/>
       <c r="F358" s="68"/>
       <c r="G358" s="68"/>
       <c r="H358" s="26"/>
     </row>
     <row r="359" spans="1:8">
-      <c r="A359" s="64"/>
-      <c r="B359" s="64"/>
-      <c r="C359" s="65"/>
-      <c r="D359" s="67"/>
-      <c r="E359" s="69"/>
-      <c r="F359" s="69"/>
-      <c r="G359" s="69"/>
+      <c r="A359" s="63"/>
+      <c r="B359" s="63"/>
+      <c r="C359" s="64"/>
+      <c r="D359" s="66"/>
+      <c r="E359" s="68"/>
+      <c r="F359" s="68"/>
+      <c r="G359" s="68"/>
       <c r="H359" s="26"/>
     </row>
     <row r="360" spans="1:8">
-      <c r="A360" s="64"/>
-      <c r="B360" s="64"/>
-      <c r="C360" s="65"/>
-      <c r="D360" s="67"/>
-      <c r="E360" s="69"/>
-      <c r="F360" s="69"/>
-      <c r="G360" s="69"/>
+      <c r="A360" s="63"/>
+      <c r="B360" s="63"/>
+      <c r="C360" s="64"/>
+      <c r="D360" s="66"/>
+      <c r="E360" s="68"/>
+      <c r="F360" s="68"/>
+      <c r="G360" s="68"/>
       <c r="H360" s="26"/>
     </row>
     <row r="361" spans="1:8">
-      <c r="A361" s="64"/>
-      <c r="B361" s="64"/>
-      <c r="C361" s="65"/>
-      <c r="D361" s="67"/>
-      <c r="E361" s="69"/>
-      <c r="F361" s="69"/>
-      <c r="G361" s="69"/>
+      <c r="A361" s="63"/>
+      <c r="B361" s="63"/>
+      <c r="C361" s="64"/>
+      <c r="D361" s="66"/>
+      <c r="E361" s="68"/>
+      <c r="F361" s="68"/>
+      <c r="G361" s="68"/>
       <c r="H361" s="26"/>
     </row>
     <row r="362" spans="1:8">
-      <c r="A362" s="64"/>
-      <c r="B362" s="64"/>
-      <c r="C362" s="65"/>
-      <c r="D362" s="67"/>
-      <c r="E362" s="69"/>
-      <c r="F362" s="69"/>
-      <c r="G362" s="69"/>
+      <c r="A362" s="63"/>
+      <c r="B362" s="63"/>
+      <c r="C362" s="64"/>
+      <c r="D362" s="66"/>
+      <c r="E362" s="68"/>
+      <c r="F362" s="68"/>
+      <c r="G362" s="68"/>
       <c r="H362" s="26"/>
     </row>
     <row r="363" spans="1:8">
-      <c r="A363" s="64"/>
-      <c r="B363" s="64"/>
-      <c r="C363" s="65"/>
-      <c r="D363" s="67"/>
-      <c r="E363" s="69"/>
-      <c r="F363" s="69"/>
-      <c r="G363" s="69"/>
+      <c r="A363" s="63"/>
+      <c r="B363" s="63"/>
+      <c r="C363" s="64"/>
+      <c r="D363" s="66"/>
+      <c r="E363" s="68"/>
+      <c r="F363" s="68"/>
+      <c r="G363" s="68"/>
       <c r="H363" s="26"/>
     </row>
     <row r="364" spans="1:8">
-      <c r="A364" s="64"/>
-      <c r="B364" s="64"/>
-      <c r="C364" s="65"/>
-      <c r="D364" s="67"/>
-      <c r="E364" s="69"/>
-      <c r="F364" s="69"/>
-      <c r="G364" s="69"/>
+      <c r="A364" s="63"/>
+      <c r="B364" s="63"/>
+      <c r="C364" s="64"/>
+      <c r="D364" s="66"/>
+      <c r="E364" s="68"/>
+      <c r="F364" s="68"/>
+      <c r="G364" s="68"/>
       <c r="H364" s="26"/>
     </row>
     <row r="365" spans="1:8">
-      <c r="A365" s="64"/>
-      <c r="B365" s="64"/>
-      <c r="C365" s="65"/>
-      <c r="D365" s="67"/>
-      <c r="E365" s="69"/>
-      <c r="F365" s="69"/>
-      <c r="G365" s="69"/>
+      <c r="A365" s="63"/>
+      <c r="B365" s="63"/>
+      <c r="C365" s="64"/>
+      <c r="D365" s="66"/>
+      <c r="E365" s="26"/>
+      <c r="F365" s="26"/>
+      <c r="G365" s="26"/>
       <c r="H365" s="26"/>
-    </row>
-    <row r="366" spans="1:8">
-      <c r="A366" s="64"/>
-      <c r="B366" s="64"/>
-      <c r="C366" s="65"/>
-      <c r="D366" s="67"/>
-      <c r="E366" s="69"/>
-      <c r="F366" s="69"/>
-      <c r="G366" s="69"/>
-      <c r="H366" s="26"/>
-    </row>
-    <row r="367" spans="1:8">
-      <c r="A367" s="64"/>
-      <c r="B367" s="64"/>
-      <c r="C367" s="65"/>
-      <c r="D367" s="67"/>
-      <c r="E367" s="26"/>
-      <c r="F367" s="26"/>
-      <c r="G367" s="26"/>
-      <c r="H367" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
